--- a/Table_gpu_Pblock.xlsx
+++ b/Table_gpu_Pblock.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sonic\OneDrive\Рабочий стол\After Christ\pythonPROJECTS\git_les\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Видеокарта" sheetId="1" r:id="rId1"/>
-    <sheet name="Блок питания" sheetId="2" r:id="rId2"/>
+    <sheet name="GPU" sheetId="1" r:id="rId1"/>
+    <sheet name="PSU" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -2756,8 +2761,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2790,17 +2795,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2838,9 +2851,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2872,9 +2885,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2906,9 +2920,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3081,14 +3096,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B446"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="52.88671875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3096,7 +3116,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -3104,7 +3124,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -3112,7 +3132,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -3120,7 +3140,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -3128,7 +3148,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -3136,7 +3156,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -3144,7 +3164,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -3152,7 +3172,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -3160,7 +3180,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -3168,7 +3188,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -3176,7 +3196,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -3184,7 +3204,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>19</v>
       </c>
@@ -3192,7 +3212,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -3200,7 +3220,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -3208,7 +3228,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>22</v>
       </c>
@@ -3216,7 +3236,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>23</v>
       </c>
@@ -3224,7 +3244,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>24</v>
       </c>
@@ -3232,7 +3252,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>24</v>
       </c>
@@ -3240,7 +3260,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>25</v>
       </c>
@@ -3248,7 +3268,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>26</v>
       </c>
@@ -3256,7 +3276,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>28</v>
       </c>
@@ -3264,7 +3284,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>29</v>
       </c>
@@ -3272,7 +3292,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>30</v>
       </c>
@@ -3280,7 +3300,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>31</v>
       </c>
@@ -3288,7 +3308,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>32</v>
       </c>
@@ -3296,7 +3316,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>33</v>
       </c>
@@ -3304,7 +3324,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>34</v>
       </c>
@@ -3312,7 +3332,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>35</v>
       </c>
@@ -3320,7 +3340,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>36</v>
       </c>
@@ -3328,7 +3348,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>37</v>
       </c>
@@ -3336,15 +3356,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>38</v>
       </c>
       <c r="B32" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>40</v>
       </c>
@@ -3352,7 +3372,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>41</v>
       </c>
@@ -3360,7 +3380,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>42</v>
       </c>
@@ -3368,7 +3388,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>43</v>
       </c>
@@ -3376,7 +3396,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>44</v>
       </c>
@@ -3384,7 +3404,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>45</v>
       </c>
@@ -3392,7 +3412,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>46</v>
       </c>
@@ -3400,7 +3420,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>47</v>
       </c>
@@ -3408,7 +3428,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>48</v>
       </c>
@@ -3416,7 +3436,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>49</v>
       </c>
@@ -3424,7 +3444,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>50</v>
       </c>
@@ -3432,7 +3452,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>51</v>
       </c>
@@ -3440,7 +3460,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>52</v>
       </c>
@@ -3448,7 +3468,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>53</v>
       </c>
@@ -3456,7 +3476,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>54</v>
       </c>
@@ -3464,7 +3484,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>55</v>
       </c>
@@ -3472,7 +3492,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>56</v>
       </c>
@@ -3480,7 +3500,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>58</v>
       </c>
@@ -3488,7 +3508,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>59</v>
       </c>
@@ -3496,7 +3516,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>60</v>
       </c>
@@ -3504,7 +3524,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>61</v>
       </c>
@@ -3512,7 +3532,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>62</v>
       </c>
@@ -3520,7 +3540,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="55" spans="1:2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>63</v>
       </c>
@@ -3528,7 +3548,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="56" spans="1:2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>64</v>
       </c>
@@ -3536,7 +3556,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="57" spans="1:2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>66</v>
       </c>
@@ -3544,7 +3564,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>67</v>
       </c>
@@ -3552,7 +3572,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>68</v>
       </c>
@@ -3560,7 +3580,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="60" spans="1:2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>69</v>
       </c>
@@ -3568,7 +3588,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="61" spans="1:2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>70</v>
       </c>
@@ -3576,7 +3596,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="62" spans="1:2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>71</v>
       </c>
@@ -3584,7 +3604,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="1:2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>72</v>
       </c>
@@ -3592,7 +3612,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="64" spans="1:2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>73</v>
       </c>
@@ -3600,7 +3620,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="65" spans="1:2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>74</v>
       </c>
@@ -3608,7 +3628,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="66" spans="1:2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>75</v>
       </c>
@@ -3616,7 +3636,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="67" spans="1:2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>77</v>
       </c>
@@ -3624,7 +3644,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="68" spans="1:2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>78</v>
       </c>
@@ -3632,7 +3652,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="69" spans="1:2">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>79</v>
       </c>
@@ -3640,7 +3660,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="70" spans="1:2">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>80</v>
       </c>
@@ -3648,7 +3668,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="71" spans="1:2">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>81</v>
       </c>
@@ -3656,7 +3676,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="72" spans="1:2">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>82</v>
       </c>
@@ -3664,7 +3684,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="73" spans="1:2">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>83</v>
       </c>
@@ -3672,7 +3692,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="74" spans="1:2">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>84</v>
       </c>
@@ -3680,7 +3700,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="75" spans="1:2">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>85</v>
       </c>
@@ -3688,7 +3708,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="76" spans="1:2">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>86</v>
       </c>
@@ -3696,7 +3716,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:2">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>87</v>
       </c>
@@ -3704,7 +3724,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:2">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>88</v>
       </c>
@@ -3712,7 +3732,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="79" spans="1:2">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>90</v>
       </c>
@@ -3720,7 +3740,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="80" spans="1:2">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>91</v>
       </c>
@@ -3728,7 +3748,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:2">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>92</v>
       </c>
@@ -3736,7 +3756,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="82" spans="1:2">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>93</v>
       </c>
@@ -3744,7 +3764,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="83" spans="1:2">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>94</v>
       </c>
@@ -3752,7 +3772,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="84" spans="1:2">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>95</v>
       </c>
@@ -3760,7 +3780,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="85" spans="1:2">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>96</v>
       </c>
@@ -3768,7 +3788,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="86" spans="1:2">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>97</v>
       </c>
@@ -3776,7 +3796,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="87" spans="1:2">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>98</v>
       </c>
@@ -3784,7 +3804,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="88" spans="1:2">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>99</v>
       </c>
@@ -3792,7 +3812,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="89" spans="1:2">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>100</v>
       </c>
@@ -3800,7 +3820,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="90" spans="1:2">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>101</v>
       </c>
@@ -3808,7 +3828,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="91" spans="1:2">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>102</v>
       </c>
@@ -3816,7 +3836,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="92" spans="1:2">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>103</v>
       </c>
@@ -3824,7 +3844,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="93" spans="1:2">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>104</v>
       </c>
@@ -3832,7 +3852,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="94" spans="1:2">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>94</v>
       </c>
@@ -3840,7 +3860,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="95" spans="1:2">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>105</v>
       </c>
@@ -3848,7 +3868,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="96" spans="1:2">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>106</v>
       </c>
@@ -3856,7 +3876,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="97" spans="1:2">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>107</v>
       </c>
@@ -3864,7 +3884,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="98" spans="1:2">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>108</v>
       </c>
@@ -3872,7 +3892,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="99" spans="1:2">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>109</v>
       </c>
@@ -3880,7 +3900,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="100" spans="1:2">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>110</v>
       </c>
@@ -3888,7 +3908,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="101" spans="1:2">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>111</v>
       </c>
@@ -3896,7 +3916,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="102" spans="1:2">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>112</v>
       </c>
@@ -3904,7 +3924,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="103" spans="1:2">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>113</v>
       </c>
@@ -3912,7 +3932,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="104" spans="1:2">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>114</v>
       </c>
@@ -3920,7 +3940,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="105" spans="1:2">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>115</v>
       </c>
@@ -3928,7 +3948,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="106" spans="1:2">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>116</v>
       </c>
@@ -3936,7 +3956,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="107" spans="1:2">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>117</v>
       </c>
@@ -3944,7 +3964,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="108" spans="1:2">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>118</v>
       </c>
@@ -3952,7 +3972,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:2">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>119</v>
       </c>
@@ -3960,7 +3980,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="110" spans="1:2">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>120</v>
       </c>
@@ -3968,7 +3988,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="111" spans="1:2">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>121</v>
       </c>
@@ -3976,7 +3996,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:2">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>122</v>
       </c>
@@ -3984,7 +4004,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="113" spans="1:2">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>123</v>
       </c>
@@ -3992,7 +4012,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="114" spans="1:2">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>124</v>
       </c>
@@ -4000,7 +4020,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:2">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>125</v>
       </c>
@@ -4008,7 +4028,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="116" spans="1:2">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>126</v>
       </c>
@@ -4016,7 +4036,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="117" spans="1:2">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>127</v>
       </c>
@@ -4024,7 +4044,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="118" spans="1:2">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>128</v>
       </c>
@@ -4032,7 +4052,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:2">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>129</v>
       </c>
@@ -4040,7 +4060,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="120" spans="1:2">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>130</v>
       </c>
@@ -4048,7 +4068,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="121" spans="1:2">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>131</v>
       </c>
@@ -4056,7 +4076,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="122" spans="1:2">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>132</v>
       </c>
@@ -4064,7 +4084,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="123" spans="1:2">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>133</v>
       </c>
@@ -4072,7 +4092,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="124" spans="1:2">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>134</v>
       </c>
@@ -4080,7 +4100,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:2">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>135</v>
       </c>
@@ -4088,7 +4108,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="126" spans="1:2">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>136</v>
       </c>
@@ -4096,7 +4116,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="127" spans="1:2">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>137</v>
       </c>
@@ -4104,7 +4124,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="128" spans="1:2">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>138</v>
       </c>
@@ -4112,7 +4132,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="129" spans="1:2">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>135</v>
       </c>
@@ -4120,7 +4140,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="130" spans="1:2">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>139</v>
       </c>
@@ -4128,7 +4148,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="131" spans="1:2">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>140</v>
       </c>
@@ -4136,7 +4156,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="132" spans="1:2">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>141</v>
       </c>
@@ -4144,7 +4164,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:2">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>142</v>
       </c>
@@ -4152,7 +4172,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:2">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>143</v>
       </c>
@@ -4160,7 +4180,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="135" spans="1:2">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>144</v>
       </c>
@@ -4168,7 +4188,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="136" spans="1:2">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>145</v>
       </c>
@@ -4176,7 +4196,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="137" spans="1:2">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>146</v>
       </c>
@@ -4184,7 +4204,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:2">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>147</v>
       </c>
@@ -4192,7 +4212,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="139" spans="1:2">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>148</v>
       </c>
@@ -4200,7 +4220,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="140" spans="1:2">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>149</v>
       </c>
@@ -4208,7 +4228,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="141" spans="1:2">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>150</v>
       </c>
@@ -4216,7 +4236,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="142" spans="1:2">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>152</v>
       </c>
@@ -4224,7 +4244,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:2">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>153</v>
       </c>
@@ -4232,7 +4252,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="144" spans="1:2">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>154</v>
       </c>
@@ -4240,7 +4260,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="145" spans="1:2">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>155</v>
       </c>
@@ -4248,7 +4268,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="146" spans="1:2">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>156</v>
       </c>
@@ -4256,7 +4276,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="147" spans="1:2">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>157</v>
       </c>
@@ -4264,7 +4284,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="148" spans="1:2">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>158</v>
       </c>
@@ -4272,7 +4292,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="149" spans="1:2">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>159</v>
       </c>
@@ -4280,7 +4300,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="150" spans="1:2">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>160</v>
       </c>
@@ -4288,7 +4308,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="151" spans="1:2">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>161</v>
       </c>
@@ -4296,7 +4316,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="152" spans="1:2">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>156</v>
       </c>
@@ -4304,7 +4324,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="153" spans="1:2">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>157</v>
       </c>
@@ -4312,7 +4332,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="154" spans="1:2">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>162</v>
       </c>
@@ -4320,7 +4340,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="155" spans="1:2">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>163</v>
       </c>
@@ -4328,7 +4348,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="156" spans="1:2">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>164</v>
       </c>
@@ -4336,7 +4356,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="157" spans="1:2">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>165</v>
       </c>
@@ -4344,7 +4364,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:2">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>166</v>
       </c>
@@ -4352,7 +4372,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="159" spans="1:2">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>167</v>
       </c>
@@ -4360,7 +4380,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="160" spans="1:2">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>168</v>
       </c>
@@ -4368,7 +4388,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="161" spans="1:2">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>169</v>
       </c>
@@ -4376,7 +4396,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="162" spans="1:2">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>170</v>
       </c>
@@ -4384,7 +4404,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="163" spans="1:2">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>171</v>
       </c>
@@ -4392,7 +4412,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="164" spans="1:2">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>172</v>
       </c>
@@ -4400,7 +4420,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="165" spans="1:2">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>173</v>
       </c>
@@ -4408,7 +4428,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="166" spans="1:2">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>174</v>
       </c>
@@ -4416,7 +4436,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="167" spans="1:2">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>175</v>
       </c>
@@ -4424,7 +4444,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="168" spans="1:2">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>174</v>
       </c>
@@ -4432,7 +4452,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="169" spans="1:2">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>172</v>
       </c>
@@ -4440,7 +4460,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="170" spans="1:2">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>176</v>
       </c>
@@ -4448,7 +4468,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="171" spans="1:2">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>175</v>
       </c>
@@ -4456,7 +4476,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="172" spans="1:2">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>177</v>
       </c>
@@ -4464,7 +4484,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="173" spans="1:2">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>171</v>
       </c>
@@ -4472,7 +4492,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="174" spans="1:2">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>178</v>
       </c>
@@ -4480,7 +4500,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="175" spans="1:2">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>179</v>
       </c>
@@ -4488,7 +4508,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:2">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>180</v>
       </c>
@@ -4496,7 +4516,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="177" spans="1:2">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>181</v>
       </c>
@@ -4504,7 +4524,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="178" spans="1:2">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>182</v>
       </c>
@@ -4512,7 +4532,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="179" spans="1:2">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>183</v>
       </c>
@@ -4520,7 +4540,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="180" spans="1:2">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>184</v>
       </c>
@@ -4528,7 +4548,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:2">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>185</v>
       </c>
@@ -4536,7 +4556,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="182" spans="1:2">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>186</v>
       </c>
@@ -4544,7 +4564,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="183" spans="1:2">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>187</v>
       </c>
@@ -4552,7 +4572,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="184" spans="1:2">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>188</v>
       </c>
@@ -4560,7 +4580,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="185" spans="1:2">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>189</v>
       </c>
@@ -4568,7 +4588,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:2">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>190</v>
       </c>
@@ -4576,7 +4596,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:2">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>191</v>
       </c>
@@ -4584,7 +4604,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:2">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>192</v>
       </c>
@@ -4592,7 +4612,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="189" spans="1:2">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>193</v>
       </c>
@@ -4600,7 +4620,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="190" spans="1:2">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>194</v>
       </c>
@@ -4608,7 +4628,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="191" spans="1:2">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>195</v>
       </c>
@@ -4616,7 +4636,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="192" spans="1:2">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>196</v>
       </c>
@@ -4624,7 +4644,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="193" spans="1:2">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>197</v>
       </c>
@@ -4632,7 +4652,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="194" spans="1:2">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>198</v>
       </c>
@@ -4640,7 +4660,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="195" spans="1:2">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>199</v>
       </c>
@@ -4648,7 +4668,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="196" spans="1:2">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>157</v>
       </c>
@@ -4656,7 +4676,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="197" spans="1:2">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>200</v>
       </c>
@@ -4664,7 +4684,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="198" spans="1:2">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>201</v>
       </c>
@@ -4672,7 +4692,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="199" spans="1:2">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>202</v>
       </c>
@@ -4680,7 +4700,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="200" spans="1:2">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>203</v>
       </c>
@@ -4688,7 +4708,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="201" spans="1:2">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>204</v>
       </c>
@@ -4696,7 +4716,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="202" spans="1:2">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>205</v>
       </c>
@@ -4704,7 +4724,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:2">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>206</v>
       </c>
@@ -4712,7 +4732,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:2">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>207</v>
       </c>
@@ -4720,7 +4740,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:2">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>208</v>
       </c>
@@ -4728,7 +4748,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="206" spans="1:2">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>209</v>
       </c>
@@ -4736,7 +4756,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="207" spans="1:2">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>210</v>
       </c>
@@ -4744,7 +4764,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="208" spans="1:2">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>211</v>
       </c>
@@ -4752,7 +4772,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="209" spans="1:2">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>212</v>
       </c>
@@ -4760,7 +4780,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="210" spans="1:2">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>213</v>
       </c>
@@ -4768,7 +4788,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="211" spans="1:2">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>214</v>
       </c>
@@ -4776,7 +4796,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="212" spans="1:2">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>186</v>
       </c>
@@ -4784,7 +4804,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="213" spans="1:2">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>215</v>
       </c>
@@ -4792,7 +4812,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="214" spans="1:2">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>195</v>
       </c>
@@ -4800,7 +4820,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="215" spans="1:2">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>216</v>
       </c>
@@ -4808,7 +4828,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="216" spans="1:2">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>217</v>
       </c>
@@ -4816,7 +4836,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="217" spans="1:2">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>218</v>
       </c>
@@ -4824,7 +4844,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="218" spans="1:2">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>219</v>
       </c>
@@ -4832,7 +4852,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="219" spans="1:2">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>220</v>
       </c>
@@ -4840,7 +4860,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="220" spans="1:2">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>221</v>
       </c>
@@ -4848,7 +4868,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="221" spans="1:2">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>222</v>
       </c>
@@ -4856,7 +4876,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="222" spans="1:2">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>121</v>
       </c>
@@ -4864,7 +4884,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:2">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>198</v>
       </c>
@@ -4872,7 +4892,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="224" spans="1:2">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>223</v>
       </c>
@@ -4880,7 +4900,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="225" spans="1:2">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>224</v>
       </c>
@@ -4888,7 +4908,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="226" spans="1:2">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>225</v>
       </c>
@@ -4896,7 +4916,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="227" spans="1:2">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>226</v>
       </c>
@@ -4904,7 +4924,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="228" spans="1:2">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>227</v>
       </c>
@@ -4912,7 +4932,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="229" spans="1:2">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>228</v>
       </c>
@@ -4920,7 +4940,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="230" spans="1:2">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>229</v>
       </c>
@@ -4928,7 +4948,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="231" spans="1:2">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>230</v>
       </c>
@@ -4936,7 +4956,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="232" spans="1:2">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>231</v>
       </c>
@@ -4944,7 +4964,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="233" spans="1:2">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>232</v>
       </c>
@@ -4952,7 +4972,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:2">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>213</v>
       </c>
@@ -4960,7 +4980,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="235" spans="1:2">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>233</v>
       </c>
@@ -4968,7 +4988,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="1:2">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>192</v>
       </c>
@@ -4976,7 +4996,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="237" spans="1:2">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>193</v>
       </c>
@@ -4984,7 +5004,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="238" spans="1:2">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>234</v>
       </c>
@@ -4992,7 +5012,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="239" spans="1:2">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>207</v>
       </c>
@@ -5000,7 +5020,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="240" spans="1:2">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>202</v>
       </c>
@@ -5008,7 +5028,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="241" spans="1:2">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>191</v>
       </c>
@@ -5016,7 +5036,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="242" spans="1:2">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>235</v>
       </c>
@@ -5024,7 +5044,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="243" spans="1:2">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>236</v>
       </c>
@@ -5032,7 +5052,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="244" spans="1:2">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>237</v>
       </c>
@@ -5040,7 +5060,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="245" spans="1:2">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>238</v>
       </c>
@@ -5048,7 +5068,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="246" spans="1:2">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>239</v>
       </c>
@@ -5056,7 +5076,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="247" spans="1:2">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>240</v>
       </c>
@@ -5064,7 +5084,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="248" spans="1:2">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>241</v>
       </c>
@@ -5072,7 +5092,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="249" spans="1:2">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>242</v>
       </c>
@@ -5080,7 +5100,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="250" spans="1:2">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>243</v>
       </c>
@@ -5088,7 +5108,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="251" spans="1:2">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>197</v>
       </c>
@@ -5096,7 +5116,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="252" spans="1:2">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>244</v>
       </c>
@@ -5104,7 +5124,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="253" spans="1:2">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>245</v>
       </c>
@@ -5112,7 +5132,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="254" spans="1:2">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>246</v>
       </c>
@@ -5120,7 +5140,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="255" spans="1:2">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>247</v>
       </c>
@@ -5128,7 +5148,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="256" spans="1:2">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>248</v>
       </c>
@@ -5136,7 +5156,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="257" spans="1:2">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>249</v>
       </c>
@@ -5144,7 +5164,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="258" spans="1:2">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>250</v>
       </c>
@@ -5152,7 +5172,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="259" spans="1:2">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>251</v>
       </c>
@@ -5160,7 +5180,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="260" spans="1:2">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>252</v>
       </c>
@@ -5168,7 +5188,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="261" spans="1:2">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>196</v>
       </c>
@@ -5176,7 +5196,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="262" spans="1:2">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>194</v>
       </c>
@@ -5184,7 +5204,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="263" spans="1:2">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>253</v>
       </c>
@@ -5192,7 +5212,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="264" spans="1:2">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>254</v>
       </c>
@@ -5200,7 +5220,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="265" spans="1:2">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>255</v>
       </c>
@@ -5208,7 +5228,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="266" spans="1:2">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>256</v>
       </c>
@@ -5216,7 +5236,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="267" spans="1:2">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>257</v>
       </c>
@@ -5224,7 +5244,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="268" spans="1:2">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>258</v>
       </c>
@@ -5232,7 +5252,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="269" spans="1:2">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>259</v>
       </c>
@@ -5240,7 +5260,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="270" spans="1:2">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>260</v>
       </c>
@@ -5248,7 +5268,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="271" spans="1:2">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>261</v>
       </c>
@@ -5256,7 +5276,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="272" spans="1:2">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>262</v>
       </c>
@@ -5264,7 +5284,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="273" spans="1:2">
+    <row r="273" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>263</v>
       </c>
@@ -5272,7 +5292,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="274" spans="1:2">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>264</v>
       </c>
@@ -5280,7 +5300,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="275" spans="1:2">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>265</v>
       </c>
@@ -5288,7 +5308,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="276" spans="1:2">
+    <row r="276" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>266</v>
       </c>
@@ -5296,7 +5316,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="277" spans="1:2">
+    <row r="277" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>267</v>
       </c>
@@ -5304,7 +5324,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="278" spans="1:2">
+    <row r="278" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>268</v>
       </c>
@@ -5312,7 +5332,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="279" spans="1:2">
+    <row r="279" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>269</v>
       </c>
@@ -5320,7 +5340,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="280" spans="1:2">
+    <row r="280" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>270</v>
       </c>
@@ -5328,7 +5348,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="281" spans="1:2">
+    <row r="281" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>271</v>
       </c>
@@ -5336,7 +5356,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="282" spans="1:2">
+    <row r="282" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>272</v>
       </c>
@@ -5344,7 +5364,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="283" spans="1:2">
+    <row r="283" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>273</v>
       </c>
@@ -5352,7 +5372,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="284" spans="1:2">
+    <row r="284" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>274</v>
       </c>
@@ -5360,7 +5380,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="285" spans="1:2">
+    <row r="285" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>275</v>
       </c>
@@ -5368,7 +5388,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="286" spans="1:2">
+    <row r="286" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>276</v>
       </c>
@@ -5376,7 +5396,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="287" spans="1:2">
+    <row r="287" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>277</v>
       </c>
@@ -5384,7 +5404,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="288" spans="1:2">
+    <row r="288" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>278</v>
       </c>
@@ -5392,7 +5412,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="289" spans="1:2">
+    <row r="289" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>279</v>
       </c>
@@ -5400,7 +5420,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="290" spans="1:2">
+    <row r="290" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>280</v>
       </c>
@@ -5408,7 +5428,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="291" spans="1:2">
+    <row r="291" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>281</v>
       </c>
@@ -5416,7 +5436,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="292" spans="1:2">
+    <row r="292" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>282</v>
       </c>
@@ -5424,7 +5444,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="293" spans="1:2">
+    <row r="293" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>283</v>
       </c>
@@ -5432,7 +5452,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="294" spans="1:2">
+    <row r="294" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>284</v>
       </c>
@@ -5440,7 +5460,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="295" spans="1:2">
+    <row r="295" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>285</v>
       </c>
@@ -5448,7 +5468,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="296" spans="1:2">
+    <row r="296" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>286</v>
       </c>
@@ -5456,7 +5476,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="297" spans="1:2">
+    <row r="297" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>287</v>
       </c>
@@ -5464,7 +5484,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="298" spans="1:2">
+    <row r="298" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>288</v>
       </c>
@@ -5472,7 +5492,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="299" spans="1:2">
+    <row r="299" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>289</v>
       </c>
@@ -5480,7 +5500,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="300" spans="1:2">
+    <row r="300" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>290</v>
       </c>
@@ -5488,7 +5508,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="301" spans="1:2">
+    <row r="301" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>291</v>
       </c>
@@ -5496,7 +5516,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="302" spans="1:2">
+    <row r="302" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
         <v>292</v>
       </c>
@@ -5504,7 +5524,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="303" spans="1:2">
+    <row r="303" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
         <v>293</v>
       </c>
@@ -5512,7 +5532,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="304" spans="1:2">
+    <row r="304" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
         <v>294</v>
       </c>
@@ -5520,7 +5540,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="305" spans="1:2">
+    <row r="305" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
         <v>295</v>
       </c>
@@ -5528,7 +5548,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="306" spans="1:2">
+    <row r="306" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
         <v>296</v>
       </c>
@@ -5536,7 +5556,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="307" spans="1:2">
+    <row r="307" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
         <v>297</v>
       </c>
@@ -5544,7 +5564,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="308" spans="1:2">
+    <row r="308" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
         <v>298</v>
       </c>
@@ -5552,7 +5572,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="309" spans="1:2">
+    <row r="309" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
         <v>299</v>
       </c>
@@ -5560,7 +5580,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="310" spans="1:2">
+    <row r="310" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
         <v>300</v>
       </c>
@@ -5568,7 +5588,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="311" spans="1:2">
+    <row r="311" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
         <v>301</v>
       </c>
@@ -5576,7 +5596,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="312" spans="1:2">
+    <row r="312" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
         <v>302</v>
       </c>
@@ -5584,7 +5604,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="313" spans="1:2">
+    <row r="313" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
         <v>303</v>
       </c>
@@ -5592,7 +5612,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="314" spans="1:2">
+    <row r="314" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
         <v>304</v>
       </c>
@@ -5600,7 +5620,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="315" spans="1:2">
+    <row r="315" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
         <v>305</v>
       </c>
@@ -5608,7 +5628,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="316" spans="1:2">
+    <row r="316" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
         <v>306</v>
       </c>
@@ -5616,7 +5636,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="317" spans="1:2">
+    <row r="317" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
         <v>70</v>
       </c>
@@ -5624,7 +5644,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="318" spans="1:2">
+    <row r="318" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
         <v>307</v>
       </c>
@@ -5632,7 +5652,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="319" spans="1:2">
+    <row r="319" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
         <v>308</v>
       </c>
@@ -5640,7 +5660,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="320" spans="1:2">
+    <row r="320" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
         <v>309</v>
       </c>
@@ -5648,7 +5668,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="321" spans="1:2">
+    <row r="321" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
         <v>310</v>
       </c>
@@ -5656,7 +5676,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="322" spans="1:2">
+    <row r="322" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
         <v>311</v>
       </c>
@@ -5664,7 +5684,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="323" spans="1:2">
+    <row r="323" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
         <v>312</v>
       </c>
@@ -5672,7 +5692,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="324" spans="1:2">
+    <row r="324" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
         <v>313</v>
       </c>
@@ -5680,7 +5700,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="325" spans="1:2">
+    <row r="325" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
         <v>314</v>
       </c>
@@ -5688,7 +5708,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="326" spans="1:2">
+    <row r="326" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
         <v>315</v>
       </c>
@@ -5696,7 +5716,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="327" spans="1:2">
+    <row r="327" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
         <v>316</v>
       </c>
@@ -5704,7 +5724,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="328" spans="1:2">
+    <row r="328" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
         <v>317</v>
       </c>
@@ -5712,7 +5732,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="329" spans="1:2">
+    <row r="329" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
         <v>318</v>
       </c>
@@ -5720,7 +5740,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="330" spans="1:2">
+    <row r="330" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
         <v>319</v>
       </c>
@@ -5728,7 +5748,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="331" spans="1:2">
+    <row r="331" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
         <v>320</v>
       </c>
@@ -5736,7 +5756,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="332" spans="1:2">
+    <row r="332" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
         <v>321</v>
       </c>
@@ -5744,7 +5764,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="333" spans="1:2">
+    <row r="333" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
         <v>322</v>
       </c>
@@ -5752,7 +5772,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="334" spans="1:2">
+    <row r="334" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
         <v>323</v>
       </c>
@@ -5760,7 +5780,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="335" spans="1:2">
+    <row r="335" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
         <v>324</v>
       </c>
@@ -5768,7 +5788,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="336" spans="1:2">
+    <row r="336" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
         <v>325</v>
       </c>
@@ -5776,7 +5796,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="337" spans="1:2">
+    <row r="337" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
         <v>326</v>
       </c>
@@ -5784,7 +5804,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="338" spans="1:2">
+    <row r="338" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
         <v>327</v>
       </c>
@@ -5792,7 +5812,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="339" spans="1:2">
+    <row r="339" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
         <v>328</v>
       </c>
@@ -5800,7 +5820,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="340" spans="1:2">
+    <row r="340" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
         <v>329</v>
       </c>
@@ -5808,7 +5828,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="341" spans="1:2">
+    <row r="341" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
         <v>330</v>
       </c>
@@ -5816,7 +5836,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="342" spans="1:2">
+    <row r="342" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
         <v>331</v>
       </c>
@@ -5824,7 +5844,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="343" spans="1:2">
+    <row r="343" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
         <v>332</v>
       </c>
@@ -5832,7 +5852,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="344" spans="1:2">
+    <row r="344" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
         <v>333</v>
       </c>
@@ -5840,7 +5860,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="345" spans="1:2">
+    <row r="345" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
         <v>334</v>
       </c>
@@ -5848,7 +5868,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="346" spans="1:2">
+    <row r="346" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
         <v>335</v>
       </c>
@@ -5856,7 +5876,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="347" spans="1:2">
+    <row r="347" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
         <v>310</v>
       </c>
@@ -5864,7 +5884,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="348" spans="1:2">
+    <row r="348" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
         <v>72</v>
       </c>
@@ -5872,7 +5892,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="349" spans="1:2">
+    <row r="349" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
         <v>305</v>
       </c>
@@ -5880,7 +5900,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="350" spans="1:2">
+    <row r="350" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
         <v>289</v>
       </c>
@@ -5888,7 +5908,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="351" spans="1:2">
+    <row r="351" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
         <v>290</v>
       </c>
@@ -5896,7 +5916,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="352" spans="1:2">
+    <row r="352" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
         <v>323</v>
       </c>
@@ -5904,7 +5924,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="353" spans="1:2">
+    <row r="353" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
         <v>297</v>
       </c>
@@ -5912,7 +5932,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="354" spans="1:2">
+    <row r="354" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
         <v>304</v>
       </c>
@@ -5920,7 +5940,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="355" spans="1:2">
+    <row r="355" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
         <v>70</v>
       </c>
@@ -5928,7 +5948,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="356" spans="1:2">
+    <row r="356" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
         <v>300</v>
       </c>
@@ -5936,7 +5956,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="357" spans="1:2">
+    <row r="357" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
         <v>302</v>
       </c>
@@ -5944,7 +5964,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="358" spans="1:2">
+    <row r="358" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
         <v>325</v>
       </c>
@@ -5952,7 +5972,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="359" spans="1:2">
+    <row r="359" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
         <v>336</v>
       </c>
@@ -5960,7 +5980,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="360" spans="1:2">
+    <row r="360" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
         <v>337</v>
       </c>
@@ -5968,7 +5988,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="361" spans="1:2">
+    <row r="361" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
         <v>338</v>
       </c>
@@ -5976,7 +5996,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="362" spans="1:2">
+    <row r="362" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
         <v>339</v>
       </c>
@@ -5984,7 +6004,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="363" spans="1:2">
+    <row r="363" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
         <v>340</v>
       </c>
@@ -5992,7 +6012,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="364" spans="1:2">
+    <row r="364" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
         <v>341</v>
       </c>
@@ -6000,7 +6020,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="365" spans="1:2">
+    <row r="365" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
         <v>301</v>
       </c>
@@ -6008,7 +6028,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="366" spans="1:2">
+    <row r="366" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
         <v>292</v>
       </c>
@@ -6016,7 +6036,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="367" spans="1:2">
+    <row r="367" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
         <v>293</v>
       </c>
@@ -6024,7 +6044,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="368" spans="1:2">
+    <row r="368" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
         <v>342</v>
       </c>
@@ -6032,7 +6052,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="369" spans="1:2">
+    <row r="369" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
         <v>343</v>
       </c>
@@ -6040,7 +6060,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="370" spans="1:2">
+    <row r="370" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
         <v>311</v>
       </c>
@@ -6048,7 +6068,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="371" spans="1:2">
+    <row r="371" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
         <v>344</v>
       </c>
@@ -6056,7 +6076,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="372" spans="1:2">
+    <row r="372" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
         <v>328</v>
       </c>
@@ -6064,7 +6084,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="373" spans="1:2">
+    <row r="373" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
         <v>329</v>
       </c>
@@ -6072,7 +6092,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="374" spans="1:2">
+    <row r="374" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
         <v>206</v>
       </c>
@@ -6080,7 +6100,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="375" spans="1:2">
+    <row r="375" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
         <v>345</v>
       </c>
@@ -6088,7 +6108,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="376" spans="1:2">
+    <row r="376" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
         <v>330</v>
       </c>
@@ -6096,7 +6116,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="377" spans="1:2">
+    <row r="377" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
         <v>306</v>
       </c>
@@ -6104,7 +6124,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="378" spans="1:2">
+    <row r="378" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
         <v>317</v>
       </c>
@@ -6112,7 +6132,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="379" spans="1:2">
+    <row r="379" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
         <v>322</v>
       </c>
@@ -6120,7 +6140,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="380" spans="1:2">
+    <row r="380" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
         <v>324</v>
       </c>
@@ -6128,7 +6148,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="381" spans="1:2">
+    <row r="381" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
         <v>326</v>
       </c>
@@ -6136,7 +6156,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="382" spans="1:2">
+    <row r="382" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
         <v>346</v>
       </c>
@@ -6144,7 +6164,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="383" spans="1:2">
+    <row r="383" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A383" t="s">
         <v>299</v>
       </c>
@@ -6152,7 +6172,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="384" spans="1:2">
+    <row r="384" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A384" t="s">
         <v>308</v>
       </c>
@@ -6160,7 +6180,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="385" spans="1:2">
+    <row r="385" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A385" t="s">
         <v>309</v>
       </c>
@@ -6168,7 +6188,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="386" spans="1:2">
+    <row r="386" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A386" t="s">
         <v>347</v>
       </c>
@@ -6176,7 +6196,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="387" spans="1:2">
+    <row r="387" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A387" t="s">
         <v>348</v>
       </c>
@@ -6184,7 +6204,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="388" spans="1:2">
+    <row r="388" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A388" t="s">
         <v>307</v>
       </c>
@@ -6192,7 +6212,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="389" spans="1:2">
+    <row r="389" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A389" t="s">
         <v>349</v>
       </c>
@@ -6200,7 +6220,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="390" spans="1:2">
+    <row r="390" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A390" t="s">
         <v>205</v>
       </c>
@@ -6208,7 +6228,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="391" spans="1:2">
+    <row r="391" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A391" t="s">
         <v>350</v>
       </c>
@@ -6216,7 +6236,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="392" spans="1:2">
+    <row r="392" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A392" t="s">
         <v>351</v>
       </c>
@@ -6224,7 +6244,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="393" spans="1:2">
+    <row r="393" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A393" t="s">
         <v>352</v>
       </c>
@@ -6232,7 +6252,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="394" spans="1:2">
+    <row r="394" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A394" t="s">
         <v>327</v>
       </c>
@@ -6240,7 +6260,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="395" spans="1:2">
+    <row r="395" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A395" t="s">
         <v>353</v>
       </c>
@@ -6248,7 +6268,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="396" spans="1:2">
+    <row r="396" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A396" t="s">
         <v>296</v>
       </c>
@@ -6256,7 +6276,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="397" spans="1:2">
+    <row r="397" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A397" t="s">
         <v>303</v>
       </c>
@@ -6264,7 +6284,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="398" spans="1:2">
+    <row r="398" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A398" t="s">
         <v>354</v>
       </c>
@@ -6272,7 +6292,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="399" spans="1:2">
+    <row r="399" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A399" t="s">
         <v>355</v>
       </c>
@@ -6280,7 +6300,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="400" spans="1:2">
+    <row r="400" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A400" t="s">
         <v>298</v>
       </c>
@@ -6288,7 +6308,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="401" spans="1:2">
+    <row r="401" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A401" t="s">
         <v>356</v>
       </c>
@@ -6296,7 +6316,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="402" spans="1:2">
+    <row r="402" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A402" t="s">
         <v>357</v>
       </c>
@@ -6304,7 +6324,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="403" spans="1:2">
+    <row r="403" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A403" t="s">
         <v>358</v>
       </c>
@@ -6312,7 +6332,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="404" spans="1:2">
+    <row r="404" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A404" t="s">
         <v>294</v>
       </c>
@@ -6320,7 +6340,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="405" spans="1:2">
+    <row r="405" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A405" t="s">
         <v>295</v>
       </c>
@@ -6328,7 +6348,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="406" spans="1:2">
+    <row r="406" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A406" t="s">
         <v>359</v>
       </c>
@@ -6336,7 +6356,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="407" spans="1:2">
+    <row r="407" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A407" t="s">
         <v>360</v>
       </c>
@@ -6344,7 +6364,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="408" spans="1:2">
+    <row r="408" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A408" t="s">
         <v>361</v>
       </c>
@@ -6352,7 +6372,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="409" spans="1:2">
+    <row r="409" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A409" t="s">
         <v>362</v>
       </c>
@@ -6360,7 +6380,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="410" spans="1:2">
+    <row r="410" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A410" t="s">
         <v>363</v>
       </c>
@@ -6368,7 +6388,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="411" spans="1:2">
+    <row r="411" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A411" t="s">
         <v>364</v>
       </c>
@@ -6376,7 +6396,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="412" spans="1:2">
+    <row r="412" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A412" t="s">
         <v>365</v>
       </c>
@@ -6384,7 +6404,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="413" spans="1:2">
+    <row r="413" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A413" t="s">
         <v>366</v>
       </c>
@@ -6392,7 +6412,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="414" spans="1:2">
+    <row r="414" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A414" t="s">
         <v>367</v>
       </c>
@@ -6400,7 +6420,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="415" spans="1:2">
+    <row r="415" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A415" t="s">
         <v>368</v>
       </c>
@@ -6408,7 +6428,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="416" spans="1:2">
+    <row r="416" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A416" t="s">
         <v>369</v>
       </c>
@@ -6416,7 +6436,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="417" spans="1:2">
+    <row r="417" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A417" t="s">
         <v>370</v>
       </c>
@@ -6424,7 +6444,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="418" spans="1:2">
+    <row r="418" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A418" t="s">
         <v>140</v>
       </c>
@@ -6432,7 +6452,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="419" spans="1:2">
+    <row r="419" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A419" t="s">
         <v>371</v>
       </c>
@@ -6440,7 +6460,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="420" spans="1:2">
+    <row r="420" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A420" t="s">
         <v>372</v>
       </c>
@@ -6448,7 +6468,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="421" spans="1:2">
+    <row r="421" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A421" t="s">
         <v>373</v>
       </c>
@@ -6456,7 +6476,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="422" spans="1:2">
+    <row r="422" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A422" t="s">
         <v>374</v>
       </c>
@@ -6464,7 +6484,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="423" spans="1:2">
+    <row r="423" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A423" t="s">
         <v>355</v>
       </c>
@@ -6472,7 +6492,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="424" spans="1:2">
+    <row r="424" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A424" t="s">
         <v>375</v>
       </c>
@@ -6480,7 +6500,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="425" spans="1:2">
+    <row r="425" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A425" t="s">
         <v>376</v>
       </c>
@@ -6488,7 +6508,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="426" spans="1:2">
+    <row r="426" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A426" t="s">
         <v>377</v>
       </c>
@@ -6496,7 +6516,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="427" spans="1:2">
+    <row r="427" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A427" t="s">
         <v>378</v>
       </c>
@@ -6504,7 +6524,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="428" spans="1:2">
+    <row r="428" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A428" t="s">
         <v>379</v>
       </c>
@@ -6512,7 +6532,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="429" spans="1:2">
+    <row r="429" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A429" t="s">
         <v>380</v>
       </c>
@@ -6520,7 +6540,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="430" spans="1:2">
+    <row r="430" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A430" t="s">
         <v>381</v>
       </c>
@@ -6528,7 +6548,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="431" spans="1:2">
+    <row r="431" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A431" t="s">
         <v>382</v>
       </c>
@@ -6536,7 +6556,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="432" spans="1:2">
+    <row r="432" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A432" t="s">
         <v>383</v>
       </c>
@@ -6544,7 +6564,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="433" spans="1:2">
+    <row r="433" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A433" t="s">
         <v>384</v>
       </c>
@@ -6552,7 +6572,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="434" spans="1:2">
+    <row r="434" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A434" t="s">
         <v>385</v>
       </c>
@@ -6560,7 +6580,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="435" spans="1:2">
+    <row r="435" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A435" t="s">
         <v>386</v>
       </c>
@@ -6568,7 +6588,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="436" spans="1:2">
+    <row r="436" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A436" t="s">
         <v>387</v>
       </c>
@@ -6576,7 +6596,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="437" spans="1:2">
+    <row r="437" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A437" t="s">
         <v>388</v>
       </c>
@@ -6584,7 +6604,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="438" spans="1:2">
+    <row r="438" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A438" t="s">
         <v>389</v>
       </c>
@@ -6592,7 +6612,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="439" spans="1:2">
+    <row r="439" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A439" t="s">
         <v>390</v>
       </c>
@@ -6600,7 +6620,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="440" spans="1:2">
+    <row r="440" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A440" t="s">
         <v>391</v>
       </c>
@@ -6608,7 +6628,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="441" spans="1:2">
+    <row r="441" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A441" t="s">
         <v>391</v>
       </c>
@@ -6616,7 +6636,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="442" spans="1:2">
+    <row r="442" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A442" t="s">
         <v>392</v>
       </c>
@@ -6624,7 +6644,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="443" spans="1:2">
+    <row r="443" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A443" t="s">
         <v>393</v>
       </c>
@@ -6632,7 +6652,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="444" spans="1:2">
+    <row r="444" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A444" t="s">
         <v>394</v>
       </c>
@@ -6640,7 +6660,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="445" spans="1:2">
+    <row r="445" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A445" t="s">
         <v>395</v>
       </c>
@@ -6648,7 +6668,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="446" spans="1:2">
+    <row r="446" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A446" t="s">
         <v>396</v>
       </c>
@@ -6662,14 +6682,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C648"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>397</v>
       </c>
@@ -6680,7 +6700,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>399</v>
       </c>
@@ -6691,7 +6711,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>400</v>
       </c>
@@ -6702,7 +6722,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>402</v>
       </c>
@@ -6713,7 +6733,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>403</v>
       </c>
@@ -6724,7 +6744,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>404</v>
       </c>
@@ -6735,7 +6755,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>405</v>
       </c>
@@ -6746,7 +6766,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>406</v>
       </c>
@@ -6757,7 +6777,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>407</v>
       </c>
@@ -6768,7 +6788,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>408</v>
       </c>
@@ -6779,7 +6799,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>409</v>
       </c>
@@ -6790,7 +6810,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>410</v>
       </c>
@@ -6801,7 +6821,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>411</v>
       </c>
@@ -6812,7 +6832,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>412</v>
       </c>
@@ -6823,7 +6843,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>413</v>
       </c>
@@ -6834,7 +6854,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>415</v>
       </c>
@@ -6845,7 +6865,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>416</v>
       </c>
@@ -6856,7 +6876,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>417</v>
       </c>
@@ -6867,7 +6887,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>418</v>
       </c>
@@ -6878,7 +6898,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>419</v>
       </c>
@@ -6889,7 +6909,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>420</v>
       </c>
@@ -6900,7 +6920,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>421</v>
       </c>
@@ -6911,7 +6931,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>422</v>
       </c>
@@ -6922,7 +6942,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>423</v>
       </c>
@@ -6933,7 +6953,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>424</v>
       </c>
@@ -6944,7 +6964,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>425</v>
       </c>
@@ -6955,7 +6975,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>427</v>
       </c>
@@ -6966,7 +6986,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>428</v>
       </c>
@@ -6977,7 +6997,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>429</v>
       </c>
@@ -6988,7 +7008,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>430</v>
       </c>
@@ -6999,7 +7019,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>432</v>
       </c>
@@ -7010,7 +7030,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>433</v>
       </c>
@@ -7021,7 +7041,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>435</v>
       </c>
@@ -7032,7 +7052,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>436</v>
       </c>
@@ -7043,7 +7063,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>437</v>
       </c>
@@ -7054,7 +7074,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>438</v>
       </c>
@@ -7065,7 +7085,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>439</v>
       </c>
@@ -7076,7 +7096,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>440</v>
       </c>
@@ -7087,7 +7107,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>441</v>
       </c>
@@ -7098,7 +7118,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>442</v>
       </c>
@@ -7109,7 +7129,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>418</v>
       </c>
@@ -7120,7 +7140,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>443</v>
       </c>
@@ -7131,7 +7151,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>444</v>
       </c>
@@ -7142,7 +7162,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>445</v>
       </c>
@@ -7153,7 +7173,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>446</v>
       </c>
@@ -7164,7 +7184,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>447</v>
       </c>
@@ -7175,7 +7195,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>448</v>
       </c>
@@ -7186,7 +7206,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>449</v>
       </c>
@@ -7197,7 +7217,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>450</v>
       </c>
@@ -7208,7 +7228,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>451</v>
       </c>
@@ -7219,7 +7239,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>452</v>
       </c>
@@ -7230,7 +7250,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>453</v>
       </c>
@@ -7241,7 +7261,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>454</v>
       </c>
@@ -7252,7 +7272,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>455</v>
       </c>
@@ -7263,7 +7283,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>456</v>
       </c>
@@ -7274,7 +7294,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>457</v>
       </c>
@@ -7285,7 +7305,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>458</v>
       </c>
@@ -7296,7 +7316,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>459</v>
       </c>
@@ -7307,7 +7327,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>460</v>
       </c>
@@ -7318,7 +7338,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>458</v>
       </c>
@@ -7329,7 +7349,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>462</v>
       </c>
@@ -7340,7 +7360,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>459</v>
       </c>
@@ -7351,7 +7371,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>463</v>
       </c>
@@ -7362,7 +7382,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>464</v>
       </c>
@@ -7373,7 +7393,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>465</v>
       </c>
@@ -7384,7 +7404,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>466</v>
       </c>
@@ -7395,7 +7415,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>467</v>
       </c>
@@ -7406,7 +7426,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>468</v>
       </c>
@@ -7417,7 +7437,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>469</v>
       </c>
@@ -7428,7 +7448,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>470</v>
       </c>
@@ -7439,7 +7459,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>471</v>
       </c>
@@ -7450,7 +7470,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>472</v>
       </c>
@@ -7461,7 +7481,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>470</v>
       </c>
@@ -7472,7 +7492,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>473</v>
       </c>
@@ -7483,7 +7503,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>474</v>
       </c>
@@ -7494,7 +7514,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>471</v>
       </c>
@@ -7505,7 +7525,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>475</v>
       </c>
@@ -7516,7 +7536,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>476</v>
       </c>
@@ -7527,7 +7547,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>477</v>
       </c>
@@ -7538,7 +7558,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>478</v>
       </c>
@@ -7549,7 +7569,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>479</v>
       </c>
@@ -7560,7 +7580,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>480</v>
       </c>
@@ -7571,7 +7591,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>481</v>
       </c>
@@ -7582,7 +7602,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>482</v>
       </c>
@@ -7593,7 +7613,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>483</v>
       </c>
@@ -7604,7 +7624,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>484</v>
       </c>
@@ -7615,7 +7635,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="87" spans="1:3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>485</v>
       </c>
@@ -7626,7 +7646,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="88" spans="1:3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>486</v>
       </c>
@@ -7637,7 +7657,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="89" spans="1:3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>487</v>
       </c>
@@ -7648,7 +7668,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="90" spans="1:3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>488</v>
       </c>
@@ -7659,7 +7679,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="91" spans="1:3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>489</v>
       </c>
@@ -7670,7 +7690,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="92" spans="1:3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>490</v>
       </c>
@@ -7681,7 +7701,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="93" spans="1:3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>491</v>
       </c>
@@ -7692,7 +7712,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="94" spans="1:3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>492</v>
       </c>
@@ -7703,7 +7723,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="95" spans="1:3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>493</v>
       </c>
@@ -7714,7 +7734,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="96" spans="1:3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>494</v>
       </c>
@@ -7725,7 +7745,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="97" spans="1:3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>495</v>
       </c>
@@ -7736,7 +7756,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="98" spans="1:3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>496</v>
       </c>
@@ -7747,7 +7767,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="99" spans="1:3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>497</v>
       </c>
@@ -7758,7 +7778,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="100" spans="1:3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>490</v>
       </c>
@@ -7769,7 +7789,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="101" spans="1:3">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>478</v>
       </c>
@@ -7780,7 +7800,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="102" spans="1:3">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>498</v>
       </c>
@@ -7791,7 +7811,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="103" spans="1:3">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>499</v>
       </c>
@@ -7802,7 +7822,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="104" spans="1:3">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>500</v>
       </c>
@@ -7813,7 +7833,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="105" spans="1:3">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>501</v>
       </c>
@@ -7824,7 +7844,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="106" spans="1:3">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>503</v>
       </c>
@@ -7835,7 +7855,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="107" spans="1:3">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>504</v>
       </c>
@@ -7846,7 +7866,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="108" spans="1:3">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>505</v>
       </c>
@@ -7857,7 +7877,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="109" spans="1:3">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>506</v>
       </c>
@@ -7868,7 +7888,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="110" spans="1:3">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>507</v>
       </c>
@@ -7879,7 +7899,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="111" spans="1:3">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>508</v>
       </c>
@@ -7890,7 +7910,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="112" spans="1:3">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>509</v>
       </c>
@@ -7901,7 +7921,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="113" spans="1:3">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>510</v>
       </c>
@@ -7912,7 +7932,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="114" spans="1:3">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>511</v>
       </c>
@@ -7923,7 +7943,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="115" spans="1:3">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>512</v>
       </c>
@@ -7934,7 +7954,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="116" spans="1:3">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>513</v>
       </c>
@@ -7945,7 +7965,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="117" spans="1:3">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>486</v>
       </c>
@@ -7956,7 +7976,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="118" spans="1:3">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>515</v>
       </c>
@@ -7967,7 +7987,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="119" spans="1:3">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>516</v>
       </c>
@@ -7978,7 +7998,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="120" spans="1:3">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>517</v>
       </c>
@@ -7989,7 +8009,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="121" spans="1:3">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>518</v>
       </c>
@@ -8000,7 +8020,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="122" spans="1:3">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>519</v>
       </c>
@@ -8011,7 +8031,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="123" spans="1:3">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>520</v>
       </c>
@@ -8022,7 +8042,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="124" spans="1:3">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>521</v>
       </c>
@@ -8033,7 +8053,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="125" spans="1:3">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>522</v>
       </c>
@@ -8044,7 +8064,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="126" spans="1:3">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>524</v>
       </c>
@@ -8055,7 +8075,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="127" spans="1:3">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>525</v>
       </c>
@@ -8066,7 +8086,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="128" spans="1:3">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>526</v>
       </c>
@@ -8077,7 +8097,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="129" spans="1:3">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>527</v>
       </c>
@@ -8088,7 +8108,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="130" spans="1:3">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>528</v>
       </c>
@@ -8099,7 +8119,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="131" spans="1:3">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>529</v>
       </c>
@@ -8110,7 +8130,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="132" spans="1:3">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>530</v>
       </c>
@@ -8121,7 +8141,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="133" spans="1:3">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>533</v>
       </c>
@@ -8132,7 +8152,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="134" spans="1:3">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>534</v>
       </c>
@@ -8143,7 +8163,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="135" spans="1:3">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>535</v>
       </c>
@@ -8154,7 +8174,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="136" spans="1:3">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>536</v>
       </c>
@@ -8165,7 +8185,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="137" spans="1:3">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>537</v>
       </c>
@@ -8176,7 +8196,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="138" spans="1:3">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>539</v>
       </c>
@@ -8187,7 +8207,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="139" spans="1:3">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>540</v>
       </c>
@@ -8198,7 +8218,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="140" spans="1:3">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>541</v>
       </c>
@@ -8209,7 +8229,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="141" spans="1:3">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>542</v>
       </c>
@@ -8220,7 +8240,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="142" spans="1:3">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>543</v>
       </c>
@@ -8231,7 +8251,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="143" spans="1:3">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>544</v>
       </c>
@@ -8242,7 +8262,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="144" spans="1:3">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>545</v>
       </c>
@@ -8253,7 +8273,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="145" spans="1:3">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>546</v>
       </c>
@@ -8264,7 +8284,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="146" spans="1:3">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>547</v>
       </c>
@@ -8275,7 +8295,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="147" spans="1:3">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>548</v>
       </c>
@@ -8286,7 +8306,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="148" spans="1:3">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>549</v>
       </c>
@@ -8297,7 +8317,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="149" spans="1:3">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>550</v>
       </c>
@@ -8308,7 +8328,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="150" spans="1:3">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>551</v>
       </c>
@@ -8319,7 +8339,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="151" spans="1:3">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>552</v>
       </c>
@@ -8330,7 +8350,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="152" spans="1:3">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>553</v>
       </c>
@@ -8341,7 +8361,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="153" spans="1:3">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>554</v>
       </c>
@@ -8352,7 +8372,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="154" spans="1:3">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>555</v>
       </c>
@@ -8363,7 +8383,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="155" spans="1:3">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>556</v>
       </c>
@@ -8374,7 +8394,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="156" spans="1:3">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>557</v>
       </c>
@@ -8385,7 +8405,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="157" spans="1:3">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>558</v>
       </c>
@@ -8396,7 +8416,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="158" spans="1:3">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>559</v>
       </c>
@@ -8407,7 +8427,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="159" spans="1:3">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>560</v>
       </c>
@@ -8418,7 +8438,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="160" spans="1:3">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>561</v>
       </c>
@@ -8429,7 +8449,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="161" spans="1:3">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>562</v>
       </c>
@@ -8440,7 +8460,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="162" spans="1:3">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>563</v>
       </c>
@@ -8451,7 +8471,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="163" spans="1:3">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>564</v>
       </c>
@@ -8462,7 +8482,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="164" spans="1:3">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>565</v>
       </c>
@@ -8473,7 +8493,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="165" spans="1:3">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>425</v>
       </c>
@@ -8484,7 +8504,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="166" spans="1:3">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>566</v>
       </c>
@@ -8495,7 +8515,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="167" spans="1:3">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>567</v>
       </c>
@@ -8506,7 +8526,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="168" spans="1:3">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>568</v>
       </c>
@@ -8517,7 +8537,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="169" spans="1:3">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>569</v>
       </c>
@@ -8528,7 +8548,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="170" spans="1:3">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>570</v>
       </c>
@@ -8539,7 +8559,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="171" spans="1:3">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>571</v>
       </c>
@@ -8550,7 +8570,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="172" spans="1:3">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>572</v>
       </c>
@@ -8561,7 +8581,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="173" spans="1:3">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>573</v>
       </c>
@@ -8572,7 +8592,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="174" spans="1:3">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>574</v>
       </c>
@@ -8583,7 +8603,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="175" spans="1:3">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>572</v>
       </c>
@@ -8594,7 +8614,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="176" spans="1:3">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>574</v>
       </c>
@@ -8605,7 +8625,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="177" spans="1:3">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>575</v>
       </c>
@@ -8616,7 +8636,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="178" spans="1:3">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>576</v>
       </c>
@@ -8627,7 +8647,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="179" spans="1:3">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>577</v>
       </c>
@@ -8638,7 +8658,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="180" spans="1:3">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>578</v>
       </c>
@@ -8649,7 +8669,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="181" spans="1:3">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>579</v>
       </c>
@@ -8660,7 +8680,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="182" spans="1:3">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>580</v>
       </c>
@@ -8671,7 +8691,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="183" spans="1:3">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>581</v>
       </c>
@@ -8682,7 +8702,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="184" spans="1:3">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>582</v>
       </c>
@@ -8693,7 +8713,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="185" spans="1:3">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>583</v>
       </c>
@@ -8704,7 +8724,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="186" spans="1:3">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>584</v>
       </c>
@@ -8715,7 +8735,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="187" spans="1:3">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>585</v>
       </c>
@@ -8726,7 +8746,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="188" spans="1:3">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>586</v>
       </c>
@@ -8737,7 +8757,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="189" spans="1:3">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>587</v>
       </c>
@@ -8748,7 +8768,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="190" spans="1:3">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>588</v>
       </c>
@@ -8759,7 +8779,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="191" spans="1:3">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>582</v>
       </c>
@@ -8770,7 +8790,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="192" spans="1:3">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>589</v>
       </c>
@@ -8781,7 +8801,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="193" spans="1:3">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>590</v>
       </c>
@@ -8792,7 +8812,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="194" spans="1:3">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>591</v>
       </c>
@@ -8803,7 +8823,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="195" spans="1:3">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>592</v>
       </c>
@@ -8814,7 +8834,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="196" spans="1:3">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>588</v>
       </c>
@@ -8825,7 +8845,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="197" spans="1:3">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>593</v>
       </c>
@@ -8836,7 +8856,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="198" spans="1:3">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>594</v>
       </c>
@@ -8847,7 +8867,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="199" spans="1:3">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>595</v>
       </c>
@@ -8858,7 +8878,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="200" spans="1:3">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>596</v>
       </c>
@@ -8869,7 +8889,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="201" spans="1:3">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>597</v>
       </c>
@@ -8880,7 +8900,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="202" spans="1:3">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>598</v>
       </c>
@@ -8891,7 +8911,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="203" spans="1:3">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>599</v>
       </c>
@@ -8902,7 +8922,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="204" spans="1:3">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>600</v>
       </c>
@@ -8913,7 +8933,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="205" spans="1:3">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>601</v>
       </c>
@@ -8924,7 +8944,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="206" spans="1:3">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>602</v>
       </c>
@@ -8935,7 +8955,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="207" spans="1:3">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>603</v>
       </c>
@@ -8946,7 +8966,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="208" spans="1:3">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>604</v>
       </c>
@@ -8957,7 +8977,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="209" spans="1:3">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>605</v>
       </c>
@@ -8968,7 +8988,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="210" spans="1:3">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>606</v>
       </c>
@@ -8979,7 +8999,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="211" spans="1:3">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>607</v>
       </c>
@@ -8990,7 +9010,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="212" spans="1:3">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>608</v>
       </c>
@@ -9001,7 +9021,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="213" spans="1:3">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>609</v>
       </c>
@@ -9012,7 +9032,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="214" spans="1:3">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>610</v>
       </c>
@@ -9023,7 +9043,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="215" spans="1:3">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>611</v>
       </c>
@@ -9034,7 +9054,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="216" spans="1:3">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>612</v>
       </c>
@@ -9045,7 +9065,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="217" spans="1:3">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>613</v>
       </c>
@@ -9056,7 +9076,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="218" spans="1:3">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>614</v>
       </c>
@@ -9067,7 +9087,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="219" spans="1:3">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>615</v>
       </c>
@@ -9078,7 +9098,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="220" spans="1:3">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>616</v>
       </c>
@@ -9089,7 +9109,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="221" spans="1:3">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>617</v>
       </c>
@@ -9100,7 +9120,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="222" spans="1:3">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>618</v>
       </c>
@@ -9111,7 +9131,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="223" spans="1:3">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>619</v>
       </c>
@@ -9122,7 +9142,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="224" spans="1:3">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>621</v>
       </c>
@@ -9133,7 +9153,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="225" spans="1:3">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>451</v>
       </c>
@@ -9144,7 +9164,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="226" spans="1:3">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>622</v>
       </c>
@@ -9155,7 +9175,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="227" spans="1:3">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>623</v>
       </c>
@@ -9166,7 +9186,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="228" spans="1:3">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>625</v>
       </c>
@@ -9177,7 +9197,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="229" spans="1:3">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>626</v>
       </c>
@@ -9188,7 +9208,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="230" spans="1:3">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>627</v>
       </c>
@@ -9199,7 +9219,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="231" spans="1:3">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>628</v>
       </c>
@@ -9210,7 +9230,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="232" spans="1:3">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>629</v>
       </c>
@@ -9221,7 +9241,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="233" spans="1:3">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>630</v>
       </c>
@@ -9232,7 +9252,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="234" spans="1:3">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>632</v>
       </c>
@@ -9243,7 +9263,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="235" spans="1:3">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>633</v>
       </c>
@@ -9254,7 +9274,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="236" spans="1:3">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>602</v>
       </c>
@@ -9265,7 +9285,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="237" spans="1:3">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>634</v>
       </c>
@@ -9276,7 +9296,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="238" spans="1:3">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>635</v>
       </c>
@@ -9287,7 +9307,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="239" spans="1:3">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>636</v>
       </c>
@@ -9298,7 +9318,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="240" spans="1:3">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>604</v>
       </c>
@@ -9309,7 +9329,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="241" spans="1:3">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>637</v>
       </c>
@@ -9320,7 +9340,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="242" spans="1:3">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>638</v>
       </c>
@@ -9331,7 +9351,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="243" spans="1:3">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>639</v>
       </c>
@@ -9342,7 +9362,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="244" spans="1:3">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>600</v>
       </c>
@@ -9353,7 +9373,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="245" spans="1:3">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>640</v>
       </c>
@@ -9364,7 +9384,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="246" spans="1:3">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>614</v>
       </c>
@@ -9375,7 +9395,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="247" spans="1:3">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>641</v>
       </c>
@@ -9386,7 +9406,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="248" spans="1:3">
+    <row r="248" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>607</v>
       </c>
@@ -9397,7 +9417,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="249" spans="1:3">
+    <row r="249" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>610</v>
       </c>
@@ -9408,7 +9428,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="250" spans="1:3">
+    <row r="250" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>643</v>
       </c>
@@ -9419,7 +9439,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="251" spans="1:3">
+    <row r="251" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>605</v>
       </c>
@@ -9430,7 +9450,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="252" spans="1:3">
+    <row r="252" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>606</v>
       </c>
@@ -9441,7 +9461,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="253" spans="1:3">
+    <row r="253" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>614</v>
       </c>
@@ -9452,7 +9472,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="254" spans="1:3">
+    <row r="254" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>609</v>
       </c>
@@ -9463,7 +9483,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="255" spans="1:3">
+    <row r="255" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>644</v>
       </c>
@@ -9474,7 +9494,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="256" spans="1:3">
+    <row r="256" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>645</v>
       </c>
@@ -9485,7 +9505,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="257" spans="1:3">
+    <row r="257" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>646</v>
       </c>
@@ -9496,7 +9516,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="258" spans="1:3">
+    <row r="258" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>647</v>
       </c>
@@ -9507,7 +9527,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="259" spans="1:3">
+    <row r="259" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>648</v>
       </c>
@@ -9518,7 +9538,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="260" spans="1:3">
+    <row r="260" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>649</v>
       </c>
@@ -9529,7 +9549,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="261" spans="1:3">
+    <row r="261" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>650</v>
       </c>
@@ -9540,7 +9560,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="262" spans="1:3">
+    <row r="262" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>651</v>
       </c>
@@ -9551,7 +9571,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="263" spans="1:3">
+    <row r="263" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>652</v>
       </c>
@@ -9562,7 +9582,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="264" spans="1:3">
+    <row r="264" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>653</v>
       </c>
@@ -9573,7 +9593,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="265" spans="1:3">
+    <row r="265" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>654</v>
       </c>
@@ -9584,7 +9604,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="266" spans="1:3">
+    <row r="266" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>655</v>
       </c>
@@ -9595,7 +9615,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="267" spans="1:3">
+    <row r="267" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>615</v>
       </c>
@@ -9606,7 +9626,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="268" spans="1:3">
+    <row r="268" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>656</v>
       </c>
@@ -9617,7 +9637,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="269" spans="1:3">
+    <row r="269" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>657</v>
       </c>
@@ -9628,7 +9648,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="270" spans="1:3">
+    <row r="270" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>658</v>
       </c>
@@ -9639,7 +9659,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="271" spans="1:3">
+    <row r="271" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>659</v>
       </c>
@@ -9650,7 +9670,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="272" spans="1:3">
+    <row r="272" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>660</v>
       </c>
@@ -9661,7 +9681,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="273" spans="1:3">
+    <row r="273" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>661</v>
       </c>
@@ -9672,7 +9692,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="274" spans="1:3">
+    <row r="274" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>662</v>
       </c>
@@ -9683,7 +9703,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="275" spans="1:3">
+    <row r="275" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>663</v>
       </c>
@@ -9694,7 +9714,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="276" spans="1:3">
+    <row r="276" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>664</v>
       </c>
@@ -9705,7 +9725,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="277" spans="1:3">
+    <row r="277" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>665</v>
       </c>
@@ -9716,7 +9736,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="278" spans="1:3">
+    <row r="278" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>666</v>
       </c>
@@ -9727,7 +9747,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="279" spans="1:3">
+    <row r="279" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>657</v>
       </c>
@@ -9738,7 +9758,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="280" spans="1:3">
+    <row r="280" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>667</v>
       </c>
@@ -9749,7 +9769,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="281" spans="1:3">
+    <row r="281" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>668</v>
       </c>
@@ -9760,7 +9780,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="282" spans="1:3">
+    <row r="282" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>669</v>
       </c>
@@ -9771,7 +9791,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="283" spans="1:3">
+    <row r="283" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>670</v>
       </c>
@@ -9782,7 +9802,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="284" spans="1:3">
+    <row r="284" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>671</v>
       </c>
@@ -9793,7 +9813,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="285" spans="1:3">
+    <row r="285" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>672</v>
       </c>
@@ -9804,7 +9824,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="286" spans="1:3">
+    <row r="286" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>673</v>
       </c>
@@ -9815,7 +9835,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="287" spans="1:3">
+    <row r="287" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>674</v>
       </c>
@@ -9826,7 +9846,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="288" spans="1:3">
+    <row r="288" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>675</v>
       </c>
@@ -9837,7 +9857,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="289" spans="1:3">
+    <row r="289" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>603</v>
       </c>
@@ -9848,7 +9868,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="290" spans="1:3">
+    <row r="290" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>676</v>
       </c>
@@ -9859,7 +9879,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="291" spans="1:3">
+    <row r="291" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>608</v>
       </c>
@@ -9870,7 +9890,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="292" spans="1:3">
+    <row r="292" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>677</v>
       </c>
@@ -9881,7 +9901,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="293" spans="1:3">
+    <row r="293" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>673</v>
       </c>
@@ -9892,7 +9912,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="294" spans="1:3">
+    <row r="294" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>662</v>
       </c>
@@ -9903,7 +9923,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="295" spans="1:3">
+    <row r="295" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>678</v>
       </c>
@@ -9914,7 +9934,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="296" spans="1:3">
+    <row r="296" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>679</v>
       </c>
@@ -9925,7 +9945,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="297" spans="1:3">
+    <row r="297" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>680</v>
       </c>
@@ -9936,7 +9956,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="298" spans="1:3">
+    <row r="298" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>681</v>
       </c>
@@ -9947,7 +9967,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="299" spans="1:3">
+    <row r="299" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>682</v>
       </c>
@@ -9958,7 +9978,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="300" spans="1:3">
+    <row r="300" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>625</v>
       </c>
@@ -9969,7 +9989,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="301" spans="1:3">
+    <row r="301" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>683</v>
       </c>
@@ -9980,7 +10000,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="302" spans="1:3">
+    <row r="302" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
         <v>669</v>
       </c>
@@ -9991,7 +10011,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="303" spans="1:3">
+    <row r="303" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
         <v>670</v>
       </c>
@@ -10002,7 +10022,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="304" spans="1:3">
+    <row r="304" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
         <v>668</v>
       </c>
@@ -10013,7 +10033,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="305" spans="1:3">
+    <row r="305" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
         <v>671</v>
       </c>
@@ -10024,7 +10044,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="306" spans="1:3">
+    <row r="306" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
         <v>663</v>
       </c>
@@ -10035,7 +10055,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="307" spans="1:3">
+    <row r="307" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
         <v>684</v>
       </c>
@@ -10046,7 +10066,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="308" spans="1:3">
+    <row r="308" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
         <v>685</v>
       </c>
@@ -10057,7 +10077,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="309" spans="1:3">
+    <row r="309" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
         <v>686</v>
       </c>
@@ -10068,7 +10088,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="310" spans="1:3">
+    <row r="310" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
         <v>687</v>
       </c>
@@ -10079,7 +10099,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="311" spans="1:3">
+    <row r="311" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
         <v>688</v>
       </c>
@@ -10090,7 +10110,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="312" spans="1:3">
+    <row r="312" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
         <v>678</v>
       </c>
@@ -10101,7 +10121,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="313" spans="1:3">
+    <row r="313" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
         <v>689</v>
       </c>
@@ -10112,7 +10132,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="314" spans="1:3">
+    <row r="314" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
         <v>679</v>
       </c>
@@ -10123,7 +10143,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="315" spans="1:3">
+    <row r="315" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
         <v>690</v>
       </c>
@@ -10134,7 +10154,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="316" spans="1:3">
+    <row r="316" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
         <v>691</v>
       </c>
@@ -10145,7 +10165,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="317" spans="1:3">
+    <row r="317" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
         <v>633</v>
       </c>
@@ -10156,7 +10176,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="318" spans="1:3">
+    <row r="318" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
         <v>692</v>
       </c>
@@ -10167,7 +10187,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="319" spans="1:3">
+    <row r="319" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
         <v>693</v>
       </c>
@@ -10178,7 +10198,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="320" spans="1:3">
+    <row r="320" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
         <v>694</v>
       </c>
@@ -10189,7 +10209,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="321" spans="1:3">
+    <row r="321" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
         <v>665</v>
       </c>
@@ -10200,7 +10220,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="322" spans="1:3">
+    <row r="322" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
         <v>442</v>
       </c>
@@ -10211,7 +10231,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="323" spans="1:3">
+    <row r="323" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
         <v>692</v>
       </c>
@@ -10222,7 +10242,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="324" spans="1:3">
+    <row r="324" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
         <v>636</v>
       </c>
@@ -10233,7 +10253,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="325" spans="1:3">
+    <row r="325" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
         <v>634</v>
       </c>
@@ -10244,7 +10264,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="326" spans="1:3">
+    <row r="326" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
         <v>664</v>
       </c>
@@ -10255,7 +10275,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="327" spans="1:3">
+    <row r="327" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
         <v>657</v>
       </c>
@@ -10266,7 +10286,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="328" spans="1:3">
+    <row r="328" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
         <v>667</v>
       </c>
@@ -10277,7 +10297,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="329" spans="1:3">
+    <row r="329" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
         <v>622</v>
       </c>
@@ -10288,7 +10308,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="330" spans="1:3">
+    <row r="330" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
         <v>695</v>
       </c>
@@ -10299,7 +10319,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="331" spans="1:3">
+    <row r="331" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
         <v>696</v>
       </c>
@@ -10310,7 +10330,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="332" spans="1:3">
+    <row r="332" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
         <v>697</v>
       </c>
@@ -10321,7 +10341,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="333" spans="1:3">
+    <row r="333" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
         <v>698</v>
       </c>
@@ -10332,7 +10352,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="334" spans="1:3">
+    <row r="334" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
         <v>699</v>
       </c>
@@ -10343,7 +10363,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="335" spans="1:3">
+    <row r="335" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
         <v>700</v>
       </c>
@@ -10354,7 +10374,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="336" spans="1:3">
+    <row r="336" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
         <v>701</v>
       </c>
@@ -10365,7 +10385,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="337" spans="1:3">
+    <row r="337" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
         <v>702</v>
       </c>
@@ -10376,7 +10396,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="338" spans="1:3">
+    <row r="338" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
         <v>703</v>
       </c>
@@ -10387,7 +10407,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="339" spans="1:3">
+    <row r="339" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
         <v>704</v>
       </c>
@@ -10398,7 +10418,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="340" spans="1:3">
+    <row r="340" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
         <v>705</v>
       </c>
@@ -10409,7 +10429,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="341" spans="1:3">
+    <row r="341" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
         <v>706</v>
       </c>
@@ -10420,7 +10440,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="342" spans="1:3">
+    <row r="342" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
         <v>707</v>
       </c>
@@ -10431,7 +10451,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="343" spans="1:3">
+    <row r="343" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
         <v>708</v>
       </c>
@@ -10442,7 +10462,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="344" spans="1:3">
+    <row r="344" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
         <v>709</v>
       </c>
@@ -10453,7 +10473,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="345" spans="1:3">
+    <row r="345" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
         <v>677</v>
       </c>
@@ -10464,7 +10484,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="346" spans="1:3">
+    <row r="346" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
         <v>710</v>
       </c>
@@ -10475,7 +10495,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="347" spans="1:3">
+    <row r="347" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
         <v>711</v>
       </c>
@@ -10486,7 +10506,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="348" spans="1:3">
+    <row r="348" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
         <v>452</v>
       </c>
@@ -10497,7 +10517,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="349" spans="1:3">
+    <row r="349" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
         <v>712</v>
       </c>
@@ -10508,7 +10528,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="350" spans="1:3">
+    <row r="350" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
         <v>713</v>
       </c>
@@ -10519,7 +10539,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="351" spans="1:3">
+    <row r="351" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
         <v>714</v>
       </c>
@@ -10530,7 +10550,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="352" spans="1:3">
+    <row r="352" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
         <v>715</v>
       </c>
@@ -10541,7 +10561,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="353" spans="1:3">
+    <row r="353" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
         <v>716</v>
       </c>
@@ -10552,7 +10572,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="354" spans="1:3">
+    <row r="354" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
         <v>606</v>
       </c>
@@ -10563,7 +10583,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="355" spans="1:3">
+    <row r="355" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
         <v>717</v>
       </c>
@@ -10574,7 +10594,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="356" spans="1:3">
+    <row r="356" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
         <v>603</v>
       </c>
@@ -10585,7 +10605,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="357" spans="1:3">
+    <row r="357" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
         <v>718</v>
       </c>
@@ -10596,7 +10616,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="358" spans="1:3">
+    <row r="358" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
         <v>719</v>
       </c>
@@ -10607,7 +10627,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="359" spans="1:3">
+    <row r="359" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
         <v>720</v>
       </c>
@@ -10618,7 +10638,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="360" spans="1:3">
+    <row r="360" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
         <v>721</v>
       </c>
@@ -10629,7 +10649,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="361" spans="1:3">
+    <row r="361" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
         <v>722</v>
       </c>
@@ -10640,7 +10660,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="362" spans="1:3">
+    <row r="362" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
         <v>714</v>
       </c>
@@ -10651,7 +10671,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="363" spans="1:3">
+    <row r="363" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
         <v>715</v>
       </c>
@@ -10662,7 +10682,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="364" spans="1:3">
+    <row r="364" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
         <v>717</v>
       </c>
@@ -10673,7 +10693,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="365" spans="1:3">
+    <row r="365" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
         <v>603</v>
       </c>
@@ -10684,7 +10704,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="366" spans="1:3">
+    <row r="366" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
         <v>681</v>
       </c>
@@ -10695,7 +10715,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="367" spans="1:3">
+    <row r="367" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
         <v>719</v>
       </c>
@@ -10706,7 +10726,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="368" spans="1:3">
+    <row r="368" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
         <v>724</v>
       </c>
@@ -10717,7 +10737,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="369" spans="1:3">
+    <row r="369" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
         <v>720</v>
       </c>
@@ -10728,7 +10748,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="370" spans="1:3">
+    <row r="370" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
         <v>725</v>
       </c>
@@ -10739,7 +10759,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="371" spans="1:3">
+    <row r="371" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
         <v>716</v>
       </c>
@@ -10750,7 +10770,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="372" spans="1:3">
+    <row r="372" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
         <v>726</v>
       </c>
@@ -10761,7 +10781,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="373" spans="1:3">
+    <row r="373" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
         <v>727</v>
       </c>
@@ -10772,7 +10792,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="374" spans="1:3">
+    <row r="374" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
         <v>685</v>
       </c>
@@ -10783,7 +10803,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="375" spans="1:3">
+    <row r="375" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
         <v>628</v>
       </c>
@@ -10794,7 +10814,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="376" spans="1:3">
+    <row r="376" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
         <v>629</v>
       </c>
@@ -10805,7 +10825,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="377" spans="1:3">
+    <row r="377" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
         <v>728</v>
       </c>
@@ -10816,7 +10836,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="378" spans="1:3">
+    <row r="378" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
         <v>729</v>
       </c>
@@ -10827,7 +10847,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="379" spans="1:3">
+    <row r="379" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
         <v>618</v>
       </c>
@@ -10838,7 +10858,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="380" spans="1:3">
+    <row r="380" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
         <v>619</v>
       </c>
@@ -10849,7 +10869,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="381" spans="1:3">
+    <row r="381" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
         <v>451</v>
       </c>
@@ -10860,7 +10880,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="382" spans="1:3">
+    <row r="382" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
         <v>672</v>
       </c>
@@ -10871,7 +10891,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="383" spans="1:3">
+    <row r="383" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A383" t="s">
         <v>730</v>
       </c>
@@ -10882,7 +10902,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="384" spans="1:3">
+    <row r="384" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A384" t="s">
         <v>731</v>
       </c>
@@ -10893,7 +10913,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="385" spans="1:3">
+    <row r="385" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A385" t="s">
         <v>732</v>
       </c>
@@ -10904,7 +10924,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="386" spans="1:3">
+    <row r="386" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A386" t="s">
         <v>733</v>
       </c>
@@ -10915,7 +10935,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="387" spans="1:3">
+    <row r="387" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A387" t="s">
         <v>734</v>
       </c>
@@ -10926,7 +10946,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="388" spans="1:3">
+    <row r="388" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A388" t="s">
         <v>735</v>
       </c>
@@ -10937,7 +10957,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="389" spans="1:3">
+    <row r="389" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A389" t="s">
         <v>736</v>
       </c>
@@ -10948,7 +10968,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="390" spans="1:3">
+    <row r="390" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A390" t="s">
         <v>737</v>
       </c>
@@ -10959,7 +10979,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="391" spans="1:3">
+    <row r="391" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A391" t="s">
         <v>738</v>
       </c>
@@ -10970,7 +10990,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="392" spans="1:3">
+    <row r="392" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A392" t="s">
         <v>702</v>
       </c>
@@ -10981,7 +11001,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="393" spans="1:3">
+    <row r="393" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A393" t="s">
         <v>701</v>
       </c>
@@ -10992,7 +11012,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="394" spans="1:3">
+    <row r="394" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A394" t="s">
         <v>739</v>
       </c>
@@ -11003,7 +11023,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="395" spans="1:3">
+    <row r="395" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A395" t="s">
         <v>740</v>
       </c>
@@ -11014,7 +11034,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="396" spans="1:3">
+    <row r="396" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A396" t="s">
         <v>741</v>
       </c>
@@ -11025,7 +11045,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="397" spans="1:3">
+    <row r="397" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A397" t="s">
         <v>722</v>
       </c>
@@ -11036,7 +11056,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="398" spans="1:3">
+    <row r="398" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A398" t="s">
         <v>724</v>
       </c>
@@ -11047,7 +11067,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="399" spans="1:3">
+    <row r="399" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A399" t="s">
         <v>725</v>
       </c>
@@ -11058,7 +11078,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="400" spans="1:3">
+    <row r="400" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A400" t="s">
         <v>742</v>
       </c>
@@ -11069,7 +11089,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="401" spans="1:3">
+    <row r="401" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A401" t="s">
         <v>743</v>
       </c>
@@ -11080,7 +11100,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="402" spans="1:3">
+    <row r="402" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A402" t="s">
         <v>676</v>
       </c>
@@ -11091,7 +11111,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="403" spans="1:3">
+    <row r="403" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A403" t="s">
         <v>744</v>
       </c>
@@ -11102,7 +11122,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="404" spans="1:3">
+    <row r="404" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A404" t="s">
         <v>745</v>
       </c>
@@ -11113,7 +11133,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="405" spans="1:3">
+    <row r="405" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A405" t="s">
         <v>746</v>
       </c>
@@ -11124,7 +11144,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="406" spans="1:3">
+    <row r="406" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A406" t="s">
         <v>747</v>
       </c>
@@ -11135,7 +11155,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="407" spans="1:3">
+    <row r="407" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A407" t="s">
         <v>505</v>
       </c>
@@ -11146,7 +11166,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="408" spans="1:3">
+    <row r="408" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A408" t="s">
         <v>748</v>
       </c>
@@ -11157,7 +11177,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="409" spans="1:3">
+    <row r="409" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A409" t="s">
         <v>732</v>
       </c>
@@ -11168,7 +11188,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="410" spans="1:3">
+    <row r="410" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A410" t="s">
         <v>733</v>
       </c>
@@ -11179,7 +11199,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="411" spans="1:3">
+    <row r="411" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A411" t="s">
         <v>730</v>
       </c>
@@ -11190,7 +11210,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="412" spans="1:3">
+    <row r="412" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A412" t="s">
         <v>731</v>
       </c>
@@ -11201,7 +11221,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="413" spans="1:3">
+    <row r="413" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A413" t="s">
         <v>734</v>
       </c>
@@ -11212,7 +11232,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="414" spans="1:3">
+    <row r="414" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A414" t="s">
         <v>749</v>
       </c>
@@ -11223,7 +11243,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="415" spans="1:3">
+    <row r="415" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A415" t="s">
         <v>750</v>
       </c>
@@ -11234,7 +11254,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="416" spans="1:3">
+    <row r="416" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A416" t="s">
         <v>751</v>
       </c>
@@ -11245,7 +11265,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="417" spans="1:3">
+    <row r="417" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A417" t="s">
         <v>735</v>
       </c>
@@ -11256,7 +11276,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="418" spans="1:3">
+    <row r="418" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A418" t="s">
         <v>736</v>
       </c>
@@ -11267,7 +11287,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="419" spans="1:3">
+    <row r="419" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A419" t="s">
         <v>738</v>
       </c>
@@ -11278,7 +11298,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="420" spans="1:3">
+    <row r="420" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A420" t="s">
         <v>737</v>
       </c>
@@ -11289,7 +11309,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="421" spans="1:3">
+    <row r="421" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A421" t="s">
         <v>752</v>
       </c>
@@ -11300,7 +11320,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="422" spans="1:3">
+    <row r="422" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A422" t="s">
         <v>753</v>
       </c>
@@ -11311,7 +11331,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="423" spans="1:3">
+    <row r="423" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A423" t="s">
         <v>754</v>
       </c>
@@ -11322,7 +11342,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="424" spans="1:3">
+    <row r="424" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A424" t="s">
         <v>755</v>
       </c>
@@ -11333,7 +11353,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="425" spans="1:3">
+    <row r="425" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A425" t="s">
         <v>756</v>
       </c>
@@ -11344,7 +11364,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="426" spans="1:3">
+    <row r="426" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A426" t="s">
         <v>757</v>
       </c>
@@ -11355,7 +11375,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="427" spans="1:3">
+    <row r="427" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A427" t="s">
         <v>758</v>
       </c>
@@ -11366,7 +11386,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="428" spans="1:3">
+    <row r="428" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A428" t="s">
         <v>759</v>
       </c>
@@ -11377,7 +11397,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="429" spans="1:3">
+    <row r="429" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A429" t="s">
         <v>760</v>
       </c>
@@ -11388,7 +11408,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="430" spans="1:3">
+    <row r="430" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A430" t="s">
         <v>588</v>
       </c>
@@ -11399,7 +11419,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="431" spans="1:3">
+    <row r="431" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A431" t="s">
         <v>761</v>
       </c>
@@ -11410,7 +11430,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="432" spans="1:3">
+    <row r="432" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A432" t="s">
         <v>762</v>
       </c>
@@ -11421,7 +11441,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="433" spans="1:3">
+    <row r="433" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A433" t="s">
         <v>763</v>
       </c>
@@ -11432,7 +11452,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="434" spans="1:3">
+    <row r="434" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A434" t="s">
         <v>764</v>
       </c>
@@ -11443,7 +11463,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="435" spans="1:3">
+    <row r="435" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A435" t="s">
         <v>765</v>
       </c>
@@ -11454,7 +11474,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="436" spans="1:3">
+    <row r="436" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A436" t="s">
         <v>766</v>
       </c>
@@ -11465,7 +11485,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="437" spans="1:3">
+    <row r="437" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A437" t="s">
         <v>767</v>
       </c>
@@ -11476,7 +11496,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="438" spans="1:3">
+    <row r="438" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A438" t="s">
         <v>768</v>
       </c>
@@ -11487,7 +11507,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="439" spans="1:3">
+    <row r="439" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A439" t="s">
         <v>756</v>
       </c>
@@ -11498,7 +11518,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="440" spans="1:3">
+    <row r="440" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A440" t="s">
         <v>769</v>
       </c>
@@ -11509,7 +11529,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="441" spans="1:3">
+    <row r="441" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A441" t="s">
         <v>770</v>
       </c>
@@ -11520,7 +11540,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="442" spans="1:3">
+    <row r="442" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A442" t="s">
         <v>771</v>
       </c>
@@ -11531,7 +11551,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="443" spans="1:3">
+    <row r="443" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A443" t="s">
         <v>772</v>
       </c>
@@ -11542,7 +11562,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="444" spans="1:3">
+    <row r="444" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A444" t="s">
         <v>773</v>
       </c>
@@ -11553,7 +11573,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="445" spans="1:3">
+    <row r="445" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A445" t="s">
         <v>774</v>
       </c>
@@ -11564,7 +11584,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="446" spans="1:3">
+    <row r="446" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A446" t="s">
         <v>681</v>
       </c>
@@ -11575,7 +11595,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="447" spans="1:3">
+    <row r="447" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A447" t="s">
         <v>775</v>
       </c>
@@ -11586,7 +11606,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="448" spans="1:3">
+    <row r="448" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A448" t="s">
         <v>776</v>
       </c>
@@ -11597,7 +11617,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="449" spans="1:3">
+    <row r="449" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A449" t="s">
         <v>504</v>
       </c>
@@ -11608,7 +11628,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="450" spans="1:3">
+    <row r="450" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A450" t="s">
         <v>777</v>
       </c>
@@ -11619,7 +11639,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="451" spans="1:3">
+    <row r="451" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A451" t="s">
         <v>778</v>
       </c>
@@ -11630,7 +11650,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="452" spans="1:3">
+    <row r="452" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A452" t="s">
         <v>779</v>
       </c>
@@ -11641,7 +11661,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="453" spans="1:3">
+    <row r="453" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A453" t="s">
         <v>780</v>
       </c>
@@ -11652,7 +11672,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="454" spans="1:3">
+    <row r="454" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A454" t="s">
         <v>781</v>
       </c>
@@ -11663,7 +11683,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="455" spans="1:3">
+    <row r="455" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A455" t="s">
         <v>782</v>
       </c>
@@ -11674,7 +11694,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="456" spans="1:3">
+    <row r="456" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A456" t="s">
         <v>783</v>
       </c>
@@ -11685,7 +11705,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="457" spans="1:3">
+    <row r="457" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A457" t="s">
         <v>784</v>
       </c>
@@ -11696,7 +11716,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="458" spans="1:3">
+    <row r="458" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A458" t="s">
         <v>785</v>
       </c>
@@ -11707,7 +11727,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="459" spans="1:3">
+    <row r="459" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A459" t="s">
         <v>786</v>
       </c>
@@ -11718,7 +11738,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="460" spans="1:3">
+    <row r="460" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A460" t="s">
         <v>787</v>
       </c>
@@ -11729,7 +11749,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="461" spans="1:3">
+    <row r="461" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A461" t="s">
         <v>788</v>
       </c>
@@ -11740,7 +11760,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="462" spans="1:3">
+    <row r="462" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A462" t="s">
         <v>789</v>
       </c>
@@ -11751,7 +11771,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="463" spans="1:3">
+    <row r="463" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A463" t="s">
         <v>790</v>
       </c>
@@ -11762,7 +11782,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="464" spans="1:3">
+    <row r="464" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A464" t="s">
         <v>791</v>
       </c>
@@ -11773,7 +11793,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="465" spans="1:3">
+    <row r="465" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A465" t="s">
         <v>792</v>
       </c>
@@ -11784,7 +11804,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="466" spans="1:3">
+    <row r="466" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A466" t="s">
         <v>793</v>
       </c>
@@ -11795,7 +11815,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="467" spans="1:3">
+    <row r="467" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A467" t="s">
         <v>794</v>
       </c>
@@ -11806,7 +11826,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="468" spans="1:3">
+    <row r="468" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A468" t="s">
         <v>795</v>
       </c>
@@ -11817,7 +11837,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="469" spans="1:3">
+    <row r="469" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A469" t="s">
         <v>796</v>
       </c>
@@ -11828,7 +11848,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="470" spans="1:3">
+    <row r="470" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A470" t="s">
         <v>797</v>
       </c>
@@ -11839,7 +11859,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="471" spans="1:3">
+    <row r="471" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A471" t="s">
         <v>798</v>
       </c>
@@ -11850,7 +11870,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="472" spans="1:3">
+    <row r="472" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A472" t="s">
         <v>464</v>
       </c>
@@ -11861,7 +11881,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="473" spans="1:3">
+    <row r="473" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A473" t="s">
         <v>678</v>
       </c>
@@ -11872,7 +11892,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="474" spans="1:3">
+    <row r="474" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A474" t="s">
         <v>799</v>
       </c>
@@ -11883,7 +11903,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="475" spans="1:3">
+    <row r="475" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A475" t="s">
         <v>800</v>
       </c>
@@ -11894,7 +11914,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="476" spans="1:3">
+    <row r="476" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A476" t="s">
         <v>801</v>
       </c>
@@ -11905,7 +11925,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="477" spans="1:3">
+    <row r="477" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A477" t="s">
         <v>802</v>
       </c>
@@ -11916,7 +11936,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="478" spans="1:3">
+    <row r="478" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A478" t="s">
         <v>803</v>
       </c>
@@ -11927,7 +11947,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="479" spans="1:3">
+    <row r="479" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A479" t="s">
         <v>804</v>
       </c>
@@ -11938,7 +11958,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="480" spans="1:3">
+    <row r="480" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A480" t="s">
         <v>805</v>
       </c>
@@ -11949,7 +11969,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="481" spans="1:3">
+    <row r="481" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A481" t="s">
         <v>806</v>
       </c>
@@ -11960,7 +11980,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="482" spans="1:3">
+    <row r="482" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A482" t="s">
         <v>807</v>
       </c>
@@ -11971,7 +11991,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="483" spans="1:3">
+    <row r="483" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A483" t="s">
         <v>808</v>
       </c>
@@ -11982,7 +12002,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="484" spans="1:3">
+    <row r="484" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A484" t="s">
         <v>809</v>
       </c>
@@ -11993,7 +12013,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="485" spans="1:3">
+    <row r="485" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A485" t="s">
         <v>810</v>
       </c>
@@ -12004,7 +12024,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="486" spans="1:3">
+    <row r="486" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A486" t="s">
         <v>811</v>
       </c>
@@ -12015,7 +12035,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="487" spans="1:3">
+    <row r="487" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A487" t="s">
         <v>812</v>
       </c>
@@ -12026,7 +12046,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="488" spans="1:3">
+    <row r="488" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A488" t="s">
         <v>422</v>
       </c>
@@ -12037,7 +12057,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="489" spans="1:3">
+    <row r="489" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A489" t="s">
         <v>813</v>
       </c>
@@ -12048,7 +12068,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="490" spans="1:3">
+    <row r="490" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A490" t="s">
         <v>814</v>
       </c>
@@ -12059,7 +12079,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="491" spans="1:3">
+    <row r="491" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A491" t="s">
         <v>815</v>
       </c>
@@ -12070,7 +12090,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="492" spans="1:3">
+    <row r="492" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A492" t="s">
         <v>816</v>
       </c>
@@ -12081,7 +12101,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="493" spans="1:3">
+    <row r="493" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A493" t="s">
         <v>817</v>
       </c>
@@ -12092,7 +12112,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="494" spans="1:3">
+    <row r="494" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A494" t="s">
         <v>818</v>
       </c>
@@ -12103,7 +12123,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="495" spans="1:3">
+    <row r="495" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A495" t="s">
         <v>819</v>
       </c>
@@ -12114,7 +12134,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="496" spans="1:3">
+    <row r="496" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A496" t="s">
         <v>820</v>
       </c>
@@ -12125,7 +12145,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="497" spans="1:3">
+    <row r="497" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A497" t="s">
         <v>775</v>
       </c>
@@ -12136,7 +12156,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="498" spans="1:3">
+    <row r="498" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A498" t="s">
         <v>821</v>
       </c>
@@ -12147,7 +12167,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="499" spans="1:3">
+    <row r="499" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A499" t="s">
         <v>822</v>
       </c>
@@ -12158,7 +12178,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="500" spans="1:3">
+    <row r="500" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A500" t="s">
         <v>823</v>
       </c>
@@ -12169,7 +12189,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="501" spans="1:3">
+    <row r="501" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A501" t="s">
         <v>778</v>
       </c>
@@ -12180,7 +12200,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="502" spans="1:3">
+    <row r="502" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A502" t="s">
         <v>825</v>
       </c>
@@ -12191,7 +12211,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="503" spans="1:3">
+    <row r="503" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A503" t="s">
         <v>780</v>
       </c>
@@ -12202,7 +12222,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="504" spans="1:3">
+    <row r="504" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A504" t="s">
         <v>826</v>
       </c>
@@ -12213,7 +12233,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="505" spans="1:3">
+    <row r="505" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A505" t="s">
         <v>781</v>
       </c>
@@ -12224,7 +12244,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="506" spans="1:3">
+    <row r="506" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A506" t="s">
         <v>785</v>
       </c>
@@ -12235,7 +12255,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="507" spans="1:3">
+    <row r="507" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A507" t="s">
         <v>783</v>
       </c>
@@ -12246,7 +12266,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="508" spans="1:3">
+    <row r="508" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A508" t="s">
         <v>784</v>
       </c>
@@ -12257,7 +12277,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="509" spans="1:3">
+    <row r="509" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A509" t="s">
         <v>827</v>
       </c>
@@ -12268,7 +12288,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="510" spans="1:3">
+    <row r="510" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A510" t="s">
         <v>828</v>
       </c>
@@ -12279,7 +12299,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="511" spans="1:3">
+    <row r="511" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A511" t="s">
         <v>829</v>
       </c>
@@ -12290,7 +12310,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="512" spans="1:3">
+    <row r="512" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A512" t="s">
         <v>830</v>
       </c>
@@ -12301,7 +12321,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="513" spans="1:3">
+    <row r="513" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A513" t="s">
         <v>831</v>
       </c>
@@ -12312,7 +12332,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="514" spans="1:3">
+    <row r="514" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A514" t="s">
         <v>832</v>
       </c>
@@ -12323,7 +12343,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="515" spans="1:3">
+    <row r="515" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A515" t="s">
         <v>833</v>
       </c>
@@ -12334,7 +12354,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="516" spans="1:3">
+    <row r="516" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A516" t="s">
         <v>834</v>
       </c>
@@ -12345,7 +12365,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="517" spans="1:3">
+    <row r="517" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A517" t="s">
         <v>835</v>
       </c>
@@ -12356,7 +12376,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="518" spans="1:3">
+    <row r="518" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A518" t="s">
         <v>836</v>
       </c>
@@ -12367,7 +12387,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="519" spans="1:3">
+    <row r="519" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A519" t="s">
         <v>837</v>
       </c>
@@ -12378,7 +12398,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="520" spans="1:3">
+    <row r="520" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A520" t="s">
         <v>838</v>
       </c>
@@ -12389,7 +12409,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="521" spans="1:3">
+    <row r="521" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A521" t="s">
         <v>815</v>
       </c>
@@ -12400,7 +12420,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="522" spans="1:3">
+    <row r="522" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A522" t="s">
         <v>598</v>
       </c>
@@ -12411,7 +12431,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="523" spans="1:3">
+    <row r="523" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A523" t="s">
         <v>839</v>
       </c>
@@ -12422,7 +12442,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="524" spans="1:3">
+    <row r="524" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A524" t="s">
         <v>840</v>
       </c>
@@ -12433,7 +12453,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="525" spans="1:3">
+    <row r="525" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A525" t="s">
         <v>841</v>
       </c>
@@ -12444,7 +12464,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="526" spans="1:3">
+    <row r="526" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A526" t="s">
         <v>842</v>
       </c>
@@ -12455,7 +12475,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="527" spans="1:3">
+    <row r="527" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A527" t="s">
         <v>774</v>
       </c>
@@ -12466,7 +12486,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="528" spans="1:3">
+    <row r="528" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A528" t="s">
         <v>776</v>
       </c>
@@ -12477,7 +12497,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="529" spans="1:3">
+    <row r="529" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A529" t="s">
         <v>843</v>
       </c>
@@ -12488,7 +12508,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="530" spans="1:3">
+    <row r="530" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A530" t="s">
         <v>464</v>
       </c>
@@ -12499,7 +12519,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="531" spans="1:3">
+    <row r="531" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A531" t="s">
         <v>844</v>
       </c>
@@ -12510,7 +12530,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="532" spans="1:3">
+    <row r="532" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A532" t="s">
         <v>845</v>
       </c>
@@ -12521,7 +12541,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="533" spans="1:3">
+    <row r="533" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A533" t="s">
         <v>846</v>
       </c>
@@ -12532,7 +12552,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="534" spans="1:3">
+    <row r="534" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A534" t="s">
         <v>847</v>
       </c>
@@ -12543,7 +12563,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="535" spans="1:3">
+    <row r="535" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A535" t="s">
         <v>848</v>
       </c>
@@ -12554,7 +12574,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="536" spans="1:3">
+    <row r="536" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A536" t="s">
         <v>520</v>
       </c>
@@ -12565,7 +12585,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="537" spans="1:3">
+    <row r="537" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A537" t="s">
         <v>849</v>
       </c>
@@ -12576,7 +12596,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="538" spans="1:3">
+    <row r="538" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A538" t="s">
         <v>850</v>
       </c>
@@ -12587,7 +12607,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="539" spans="1:3">
+    <row r="539" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A539" t="s">
         <v>851</v>
       </c>
@@ -12598,7 +12618,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="540" spans="1:3">
+    <row r="540" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A540" t="s">
         <v>852</v>
       </c>
@@ -12609,7 +12629,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="541" spans="1:3">
+    <row r="541" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A541" t="s">
         <v>853</v>
       </c>
@@ -12620,7 +12640,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="542" spans="1:3">
+    <row r="542" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A542" t="s">
         <v>854</v>
       </c>
@@ -12631,7 +12651,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="543" spans="1:3">
+    <row r="543" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A543" t="s">
         <v>422</v>
       </c>
@@ -12642,7 +12662,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="544" spans="1:3">
+    <row r="544" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A544" t="s">
         <v>855</v>
       </c>
@@ -12653,7 +12673,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="545" spans="1:3">
+    <row r="545" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A545" t="s">
         <v>802</v>
       </c>
@@ -12664,7 +12684,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="546" spans="1:3">
+    <row r="546" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A546" t="s">
         <v>856</v>
       </c>
@@ -12675,7 +12695,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="547" spans="1:3">
+    <row r="547" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A547" t="s">
         <v>812</v>
       </c>
@@ -12686,7 +12706,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="548" spans="1:3">
+    <row r="548" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A548" t="s">
         <v>422</v>
       </c>
@@ -12697,7 +12717,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="549" spans="1:3">
+    <row r="549" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A549" t="s">
         <v>857</v>
       </c>
@@ -12708,7 +12728,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="550" spans="1:3">
+    <row r="550" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A550" t="s">
         <v>598</v>
       </c>
@@ -12719,7 +12739,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="551" spans="1:3">
+    <row r="551" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A551" t="s">
         <v>858</v>
       </c>
@@ -12730,7 +12750,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="552" spans="1:3">
+    <row r="552" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A552" t="s">
         <v>499</v>
       </c>
@@ -12741,7 +12761,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="553" spans="1:3">
+    <row r="553" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A553" t="s">
         <v>848</v>
       </c>
@@ -12752,7 +12772,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="554" spans="1:3">
+    <row r="554" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A554" t="s">
         <v>845</v>
       </c>
@@ -12763,7 +12783,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="555" spans="1:3">
+    <row r="555" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A555" t="s">
         <v>859</v>
       </c>
@@ -12774,7 +12794,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="556" spans="1:3">
+    <row r="556" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A556" t="s">
         <v>860</v>
       </c>
@@ -12785,7 +12805,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="557" spans="1:3">
+    <row r="557" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A557" t="s">
         <v>789</v>
       </c>
@@ -12796,7 +12816,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="558" spans="1:3">
+    <row r="558" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A558" t="s">
         <v>797</v>
       </c>
@@ -12807,7 +12827,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="559" spans="1:3">
+    <row r="559" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A559" t="s">
         <v>861</v>
       </c>
@@ -12818,7 +12838,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="560" spans="1:3">
+    <row r="560" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A560" t="s">
         <v>862</v>
       </c>
@@ -12829,7 +12849,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="561" spans="1:3">
+    <row r="561" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A561" t="s">
         <v>863</v>
       </c>
@@ -12840,7 +12860,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="562" spans="1:3">
+    <row r="562" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A562" t="s">
         <v>864</v>
       </c>
@@ -12851,7 +12871,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="563" spans="1:3">
+    <row r="563" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A563" t="s">
         <v>865</v>
       </c>
@@ -12862,7 +12882,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="564" spans="1:3">
+    <row r="564" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A564" t="s">
         <v>866</v>
       </c>
@@ -12873,7 +12893,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="565" spans="1:3">
+    <row r="565" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A565" t="s">
         <v>820</v>
       </c>
@@ -12884,7 +12904,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="566" spans="1:3">
+    <row r="566" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A566" t="s">
         <v>867</v>
       </c>
@@ -12895,7 +12915,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="567" spans="1:3">
+    <row r="567" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A567" t="s">
         <v>680</v>
       </c>
@@ -12906,7 +12926,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="568" spans="1:3">
+    <row r="568" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A568" t="s">
         <v>868</v>
       </c>
@@ -12917,7 +12937,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="569" spans="1:3">
+    <row r="569" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A569" t="s">
         <v>869</v>
       </c>
@@ -12928,7 +12948,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="570" spans="1:3">
+    <row r="570" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A570" t="s">
         <v>870</v>
       </c>
@@ -12939,7 +12959,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="571" spans="1:3">
+    <row r="571" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A571" t="s">
         <v>871</v>
       </c>
@@ -12950,7 +12970,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="572" spans="1:3">
+    <row r="572" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A572" t="s">
         <v>872</v>
       </c>
@@ -12961,7 +12981,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="573" spans="1:3">
+    <row r="573" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A573" t="s">
         <v>873</v>
       </c>
@@ -12972,7 +12992,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="574" spans="1:3">
+    <row r="574" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A574" t="s">
         <v>849</v>
       </c>
@@ -12983,7 +13003,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="575" spans="1:3">
+    <row r="575" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A575" t="s">
         <v>874</v>
       </c>
@@ -12994,7 +13014,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="576" spans="1:3">
+    <row r="576" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A576" t="s">
         <v>875</v>
       </c>
@@ -13005,7 +13025,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="577" spans="1:3">
+    <row r="577" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A577" t="s">
         <v>826</v>
       </c>
@@ -13016,7 +13036,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="578" spans="1:3">
+    <row r="578" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A578" t="s">
         <v>812</v>
       </c>
@@ -13027,7 +13047,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="579" spans="1:3">
+    <row r="579" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A579" t="s">
         <v>876</v>
       </c>
@@ -13038,7 +13058,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="580" spans="1:3">
+    <row r="580" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A580" t="s">
         <v>819</v>
       </c>
@@ -13049,7 +13069,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="581" spans="1:3">
+    <row r="581" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A581" t="s">
         <v>464</v>
       </c>
@@ -13060,7 +13080,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="582" spans="1:3">
+    <row r="582" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A582" t="s">
         <v>858</v>
       </c>
@@ -13071,7 +13091,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="583" spans="1:3">
+    <row r="583" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A583" t="s">
         <v>877</v>
       </c>
@@ -13082,7 +13102,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="584" spans="1:3">
+    <row r="584" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A584" t="s">
         <v>839</v>
       </c>
@@ -13093,7 +13113,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="585" spans="1:3">
+    <row r="585" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A585" t="s">
         <v>841</v>
       </c>
@@ -13104,7 +13124,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="586" spans="1:3">
+    <row r="586" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A586" t="s">
         <v>878</v>
       </c>
@@ -13115,7 +13135,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="587" spans="1:3">
+    <row r="587" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A587" t="s">
         <v>833</v>
       </c>
@@ -13126,7 +13146,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="588" spans="1:3">
+    <row r="588" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A588" t="s">
         <v>813</v>
       </c>
@@ -13137,7 +13157,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="589" spans="1:3">
+    <row r="589" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A589" t="s">
         <v>718</v>
       </c>
@@ -13148,7 +13168,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="590" spans="1:3">
+    <row r="590" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A590" t="s">
         <v>879</v>
       </c>
@@ -13159,7 +13179,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="591" spans="1:3">
+    <row r="591" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A591" t="s">
         <v>880</v>
       </c>
@@ -13170,7 +13190,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="592" spans="1:3">
+    <row r="592" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A592" t="s">
         <v>834</v>
       </c>
@@ -13181,7 +13201,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="593" spans="1:3">
+    <row r="593" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A593" t="s">
         <v>881</v>
       </c>
@@ -13192,7 +13212,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="594" spans="1:3">
+    <row r="594" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A594" t="s">
         <v>864</v>
       </c>
@@ -13203,7 +13223,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="595" spans="1:3">
+    <row r="595" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A595" t="s">
         <v>868</v>
       </c>
@@ -13214,7 +13234,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="596" spans="1:3">
+    <row r="596" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A596" t="s">
         <v>808</v>
       </c>
@@ -13225,7 +13245,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="597" spans="1:3">
+    <row r="597" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A597" t="s">
         <v>809</v>
       </c>
@@ -13236,7 +13256,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="598" spans="1:3">
+    <row r="598" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A598" t="s">
         <v>842</v>
       </c>
@@ -13247,7 +13267,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="599" spans="1:3">
+    <row r="599" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A599" t="s">
         <v>871</v>
       </c>
@@ -13258,7 +13278,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="600" spans="1:3">
+    <row r="600" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A600" t="s">
         <v>840</v>
       </c>
@@ -13269,7 +13289,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="601" spans="1:3">
+    <row r="601" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A601" t="s">
         <v>861</v>
       </c>
@@ -13280,7 +13300,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="602" spans="1:3">
+    <row r="602" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A602" t="s">
         <v>807</v>
       </c>
@@ -13291,7 +13311,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="603" spans="1:3">
+    <row r="603" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A603" t="s">
         <v>882</v>
       </c>
@@ -13302,7 +13322,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="604" spans="1:3">
+    <row r="604" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A604" t="s">
         <v>883</v>
       </c>
@@ -13313,7 +13333,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="605" spans="1:3">
+    <row r="605" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A605" t="s">
         <v>884</v>
       </c>
@@ -13324,7 +13344,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="606" spans="1:3">
+    <row r="606" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A606" t="s">
         <v>806</v>
       </c>
@@ -13335,7 +13355,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="607" spans="1:3">
+    <row r="607" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A607" t="s">
         <v>811</v>
       </c>
@@ -13346,7 +13366,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="608" spans="1:3">
+    <row r="608" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A608" t="s">
         <v>885</v>
       </c>
@@ -13357,7 +13377,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="609" spans="1:3">
+    <row r="609" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A609" t="s">
         <v>886</v>
       </c>
@@ -13368,7 +13388,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="610" spans="1:3">
+    <row r="610" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A610" t="s">
         <v>644</v>
       </c>
@@ -13379,7 +13399,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="611" spans="1:3">
+    <row r="611" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A611" t="s">
         <v>847</v>
       </c>
@@ -13390,7 +13410,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="612" spans="1:3">
+    <row r="612" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A612" t="s">
         <v>791</v>
       </c>
@@ -13401,7 +13421,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="613" spans="1:3">
+    <row r="613" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A613" t="s">
         <v>792</v>
       </c>
@@ -13412,7 +13432,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="614" spans="1:3">
+    <row r="614" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A614" t="s">
         <v>790</v>
       </c>
@@ -13423,7 +13443,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="615" spans="1:3">
+    <row r="615" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A615" t="s">
         <v>678</v>
       </c>
@@ -13434,7 +13454,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="616" spans="1:3">
+    <row r="616" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A616" t="s">
         <v>887</v>
       </c>
@@ -13445,7 +13465,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="617" spans="1:3">
+    <row r="617" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A617" t="s">
         <v>788</v>
       </c>
@@ -13456,7 +13476,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="618" spans="1:3">
+    <row r="618" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A618" t="s">
         <v>787</v>
       </c>
@@ -13467,7 +13487,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="619" spans="1:3">
+    <row r="619" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A619" t="s">
         <v>888</v>
       </c>
@@ -13478,7 +13498,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="620" spans="1:3">
+    <row r="620" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A620" t="s">
         <v>889</v>
       </c>
@@ -13489,7 +13509,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="621" spans="1:3">
+    <row r="621" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A621" t="s">
         <v>890</v>
       </c>
@@ -13500,7 +13520,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="622" spans="1:3">
+    <row r="622" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A622" t="s">
         <v>891</v>
       </c>
@@ -13511,7 +13531,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="623" spans="1:3">
+    <row r="623" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A623" t="s">
         <v>892</v>
       </c>
@@ -13522,7 +13542,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="624" spans="1:3">
+    <row r="624" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A624" t="s">
         <v>893</v>
       </c>
@@ -13533,7 +13553,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="625" spans="1:3">
+    <row r="625" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A625" t="s">
         <v>894</v>
       </c>
@@ -13544,7 +13564,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="626" spans="1:3">
+    <row r="626" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A626" t="s">
         <v>895</v>
       </c>
@@ -13555,7 +13575,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="627" spans="1:3">
+    <row r="627" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A627" t="s">
         <v>897</v>
       </c>
@@ -13566,7 +13586,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="628" spans="1:3">
+    <row r="628" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A628" t="s">
         <v>898</v>
       </c>
@@ -13577,7 +13597,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="629" spans="1:3">
+    <row r="629" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A629" t="s">
         <v>713</v>
       </c>
@@ -13588,7 +13608,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="630" spans="1:3">
+    <row r="630" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A630" t="s">
         <v>899</v>
       </c>
@@ -13599,7 +13619,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="631" spans="1:3">
+    <row r="631" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A631" t="s">
         <v>891</v>
       </c>
@@ -13610,7 +13630,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="632" spans="1:3">
+    <row r="632" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A632" t="s">
         <v>888</v>
       </c>
@@ -13621,7 +13641,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="633" spans="1:3">
+    <row r="633" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A633" t="s">
         <v>900</v>
       </c>
@@ -13632,7 +13652,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="634" spans="1:3">
+    <row r="634" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A634" t="s">
         <v>901</v>
       </c>
@@ -13643,7 +13663,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="635" spans="1:3">
+    <row r="635" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A635" t="s">
         <v>902</v>
       </c>
@@ -13654,7 +13674,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="636" spans="1:3">
+    <row r="636" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A636" t="s">
         <v>893</v>
       </c>
@@ -13665,7 +13685,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="637" spans="1:3">
+    <row r="637" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A637" t="s">
         <v>895</v>
       </c>
@@ -13676,7 +13696,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="638" spans="1:3">
+    <row r="638" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A638" t="s">
         <v>903</v>
       </c>
@@ -13687,7 +13707,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="639" spans="1:3">
+    <row r="639" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A639" t="s">
         <v>904</v>
       </c>
@@ -13698,7 +13718,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="640" spans="1:3">
+    <row r="640" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A640" t="s">
         <v>898</v>
       </c>
@@ -13709,7 +13729,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="641" spans="1:3">
+    <row r="641" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A641" t="s">
         <v>897</v>
       </c>
@@ -13720,7 +13740,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="642" spans="1:3">
+    <row r="642" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A642" t="s">
         <v>905</v>
       </c>
@@ -13731,7 +13751,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="643" spans="1:3">
+    <row r="643" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A643" t="s">
         <v>906</v>
       </c>
@@ -13742,7 +13762,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="644" spans="1:3">
+    <row r="644" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A644" t="s">
         <v>907</v>
       </c>
@@ -13753,7 +13773,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="645" spans="1:3">
+    <row r="645" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A645" t="s">
         <v>908</v>
       </c>
@@ -13764,7 +13784,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="646" spans="1:3">
+    <row r="646" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A646" t="s">
         <v>909</v>
       </c>
@@ -13775,7 +13795,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="647" spans="1:3">
+    <row r="647" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A647" t="s">
         <v>910</v>
       </c>
@@ -13786,7 +13806,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="648" spans="1:3">
+    <row r="648" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A648" t="s">
         <v>911</v>
       </c>
